--- a/data/hotels_by_city/Houston/Houston_shard_232.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_232.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="452">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d217744-Reviews-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America-Houston-Willowbrook-HWY-249.h202782.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1246 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r580417749-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>217744</t>
+  </si>
+  <si>
+    <t>580417749</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>The ladies at the front desk are so genuinely sweet.</t>
+  </si>
+  <si>
+    <t>I like staying here because the rooms always look great, the food is good, and the ladies in the front office especially Nikki they are so amazing, and really dedicated to their job. She treats everyone with the upmost respect.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
+  </si>
+  <si>
+    <t>I like staying here because the rooms always look great, the food is good, and the ladies in the front office especially Nikki they are so amazing, and really dedicated to their job. She treats everyone with the upmost respect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r580396526-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580396526</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>I would like to compliment ms.nikki on all the great work and time she provide to make us feel more than comfortable at our stay .She went over and beyond her expectations to make us feel at home loveMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I would like to compliment ms.nikki on all the great work and time she provide to make us feel more than comfortable at our stay .She went over and beyond her expectations to make us feel at home loveMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r573484723-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573484723</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Worst motel</t>
+  </si>
+  <si>
+    <t>What a disappointment. The room was not very well cleaned. The floors had stains, the the refrigerator was dirty, there are cobwebs in the corners of the ceiling, and there was fast food trash left in one of the dresser drawers. The gentleman at the front desk was nice and found me a different room. This room wasn't any better but at least there wasn't any trash. The next day I couldn't shower because they ran out of towels. When I went to bed the roaches came out and at that point I was done. I couldn't get a hold of anyone at the front desk so I left at 1:30 in the morning and stayed somewhere else. When I came back and told the girl at the front desk, she acted like it was no big deal. I spoke to the main office and I am getting my money back. Never again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded April 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2018</t>
+  </si>
+  <si>
+    <t>What a disappointment. The room was not very well cleaned. The floors had stains, the the refrigerator was dirty, there are cobwebs in the corners of the ceiling, and there was fast food trash left in one of the dresser drawers. The gentleman at the front desk was nice and found me a different room. This room wasn't any better but at least there wasn't any trash. The next day I couldn't shower because they ran out of towels. When I went to bed the roaches came out and at that point I was done. I couldn't get a hold of anyone at the front desk so I left at 1:30 in the morning and stayed somewhere else. When I came back and told the girl at the front desk, she acted like it was no big deal. I spoke to the main office and I am getting my money back. Never again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r572243115-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572243115</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Stay was so great, I'm still here!</t>
+  </si>
+  <si>
+    <t>I've been here over a year and a half and have seen many people come and go. Since getting to know Nikki Scott I have to say I've enjoyed going to the office. She always makes me smile and more importantly takes care of my requests immediately!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>I've been here over a year and a half and have seen many people come and go. Since getting to know Nikki Scott I have to say I've enjoyed going to the office. She always makes me smile and more importantly takes care of my requests immediately!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r571925410-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571925410</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Willowbrook Location</t>
+  </si>
+  <si>
+    <t>Clean rooms.  Comfortable beds and pillows. Friendly and helpful staff. Surrounded by a plethora of shops, restaurants and stores.  Safe neighborhood.  Ample, well lit parking.  Easy and close access to major highways.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean rooms.  Comfortable beds and pillows. Friendly and helpful staff. Surrounded by a plethora of shops, restaurants and stores.  Safe neighborhood.  Ample, well lit parking.  Easy and close access to major highways.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r567966758-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567966758</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Imani Muhammad</t>
+  </si>
+  <si>
+    <t>me and my friend came in to get our room and she was handling 6 people in the lobby while still on the phone and providing good service to everyone. I don’t know what your other workers are like but she was doing a great job. during the whole stressful situation she was happy, friendly, and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>me and my friend came in to get our room and she was handling 6 people in the lobby while still on the phone and providing good service to everyone. I don’t know what your other workers are like but she was doing a great job. during the whole stressful situation she was happy, friendly, and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r560889186-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560889186</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t>Extended stay</t>
+  </si>
+  <si>
+    <t>Good afternoon , I been here for about. 3 weeks now. Ms. Nikki has been such a big help. She greets with a great warm smile and shows her concerns. Upon my arrival, she picked up I was very depressed and made it her goal to make me feel better. Thank you ms Nikki i really needed that. property is cleaned daily.  The property manger is very kind and concerned with the safety of property. There's on night security. Great place to stay..... Thank you my love bugs for being so wonderful.  Be blessed and I'll see you again....                                            Deon Ecckles MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded February 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2018</t>
+  </si>
+  <si>
+    <t>Good afternoon , I been here for about. 3 weeks now. Ms. Nikki has been such a big help. She greets with a great warm smile and shows her concerns. Upon my arrival, she picked up I was very depressed and made it her goal to make me feel better. Thank you ms Nikki i really needed that. property is cleaned daily.  The property manger is very kind and concerned with the safety of property. There's on night security. Great place to stay..... Thank you my love bugs for being so wonderful.  Be blessed and I'll see you again....                                            Deon Ecckles More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r560859898-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560859898</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Great and awesome staff rooms are good Managers go out there way to help you out no matter how big or small. Location is great and quiet place at all times food and shopping really close located close by all major highwaysMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded February 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2018</t>
+  </si>
+  <si>
+    <t>Great and awesome staff rooms are good Managers go out there way to help you out no matter how big or small. Location is great and quiet place at all times food and shopping really close located close by all major highwaysMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r559682278-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559682278</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Just shocked</t>
+  </si>
+  <si>
+    <t>Toilet seat was filthy and beat down. Makes me want to vomit. Staff was very nice, especially Nikki who was friendly and helpful. I've been here many times but it seems to get worst everyday. It's beginning to become a cheap motel, unless they start upgrading some basic things! Toilet seat cost like $10 at Walmart!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Toilet seat was filthy and beat down. Makes me want to vomit. Staff was very nice, especially Nikki who was friendly and helpful. I've been here many times but it seems to get worst everyday. It's beginning to become a cheap motel, unless they start upgrading some basic things! Toilet seat cost like $10 at Walmart!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r550220380-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550220380</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>This was by far the worst place I have ever stayed. It’s filthy do not waste your money.</t>
+  </si>
+  <si>
+    <t>The place was filthy and the staff was well aware of the issues and did nothing to remedy the problem. The assistant manager had a horrible attitude; when I spoke with the manager about it she did nothing. I stayed for 7 weeks on assignment and my room was not cleaned one time, even though it was brought to the attention of the assistant manager, manager, and front desk staff. Save your money...do not stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded December 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2017</t>
+  </si>
+  <si>
+    <t>The place was filthy and the staff was well aware of the issues and did nothing to remedy the problem. The assistant manager had a horrible attitude; when I spoke with the manager about it she did nothing. I stayed for 7 weeks on assignment and my room was not cleaned one time, even though it was brought to the attention of the assistant manager, manager, and front desk staff. Save your money...do not stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r545404130-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545404130</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>Baring the greasy light switches that were switched on with plastic bags, stained and dirty floors, flashing sticky dirty telephones, pubic hair in the bed, stains on bedding, bed not made, sticky kitchen floor, shower that evacuated black grits before showering, toilets with unsightly stains from previous guests on all sides of the toilet, garbage left behind the furniture looking for outlets, outlets that don't hold charger plugs, cigarette burn stains left on the tables and counters, the fridge that was louder than the train that passed by 3 times a night, and the door lock that was missing the lock... the front desk staff were exceptionally helpful and courteous especially when we asked for compensation for such a unique and unforgettable experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Baring the greasy light switches that were switched on with plastic bags, stained and dirty floors, flashing sticky dirty telephones, pubic hair in the bed, stains on bedding, bed not made, sticky kitchen floor, shower that evacuated black grits before showering, toilets with unsightly stains from previous guests on all sides of the toilet, garbage left behind the furniture looking for outlets, outlets that don't hold charger plugs, cigarette burn stains left on the tables and counters, the fridge that was louder than the train that passed by 3 times a night, and the door lock that was missing the lock... the front desk staff were exceptionally helpful and courteous especially when we asked for compensation for such a unique and unforgettable experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r545363570-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545363570</t>
+  </si>
+  <si>
+    <t>No view</t>
+  </si>
+  <si>
+    <t>No view just a loud train. No queen. It's a full. Paint and latex in shower. No dishes. Bad wifi. Nikki was very nice and helpful. Never got my 5% back for how dirty the room was. Breakfast was a joke with no coffee or hot water. Bed sheets are horrible and pillows suck. MoreShow less</t>
+  </si>
+  <si>
+    <t>No view just a loud train. No queen. It's a full. Paint and latex in shower. No dishes. Bad wifi. Nikki was very nice and helpful. Never got my 5% back for how dirty the room was. Breakfast was a joke with no coffee or hot water. Bed sheets are horrible and pillows suck. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r538987022-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538987022</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>Poor management, high employee turnover, manager does not address issues and concerns nor respond to emails, you share a room with roaches and lizards, no ice machine, housekeeping is hit and miss, office door is almost always locked. There were several other guest whom had issues as well as I heard comments and talked to some of them. TOO MANY things to mention here. DON'T STAY HEREMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Poor management, high employee turnover, manager does not address issues and concerns nor respond to emails, you share a room with roaches and lizards, no ice machine, housekeeping is hit and miss, office door is almost always locked. There were several other guest whom had issues as well as I heard comments and talked to some of them. TOO MANY things to mention here. DON'T STAY HEREMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r536538265-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536538265</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Rooms old and too small. No indusive for doing business from. Train active  track 50 yds from room. Whistle blowing when going by. Horrible chemical smell in room. Stayed one night out of 5. Had to leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded October 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2017</t>
+  </si>
+  <si>
+    <t>Rooms old and too small. No indusive for doing business from. Train active  track 50 yds from room. Whistle blowing when going by. Horrible chemical smell in room. Stayed one night out of 5. Had to leave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r535713286-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535713286</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>The staff here has been great.. The asst mgr Sheena make you wanna extend your stay.. Her bright smile and southern hospitality gives the place that bed n breakfast feel.. the rooms are cozy and  very clean. I would definitely recommend this location.. i will definitely be backMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded October 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2017</t>
+  </si>
+  <si>
+    <t>The staff here has been great.. The asst mgr Sheena make you wanna extend your stay.. Her bright smile and southern hospitality gives the place that bed n breakfast feel.. the rooms are cozy and  very clean. I would definitely recommend this location.. i will definitely be backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r531582620-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531582620</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Do not stay at this hotel</t>
+  </si>
+  <si>
+    <t>It is funny how some hotels of the same brand are so vastly different.  I stayed at the Tromball location before (less than 1 mile away.  It was delightful.  This was terrible.  Make sure you book the right place if you stay in Willowbrook.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>It is funny how some hotels of the same brand are so vastly different.  I stayed at the Tromball location before (less than 1 mile away.  It was delightful.  This was terrible.  Make sure you book the right place if you stay in Willowbrook.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r519531945-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>519531945</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Our room was nice and everything worked; nice and cold ac, comfy bed.  Front desk personnel were professional and very helpful.  Thanks again for giving us a place of refuge in all this crazy weather!  Parking lot didn't take on water, not ONCE!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Our room was nice and everything worked; nice and cold ac, comfy bed.  Front desk personnel were professional and very helpful.  Thanks again for giving us a place of refuge in all this crazy weather!  Parking lot didn't take on water, not ONCE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r506796222-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506796222</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Horrible Customer Service/ FRAUD</t>
+  </si>
+  <si>
+    <t>I have stayed probably months in extended stays over the last few years with Central Transport. So I booked a reservation and then went to cancel it before the 6pm deadline. When I called the reservation line to cancel I spent over 3 hours on the phone trying to first cancel the reservation then to be sure I wasn't going to be charged. I spoke with a supervisor at the reservation line who told me he would make sure I was not charged and he also told me ERIC the manger from the hotel would call me and just confirm it was all taken care of. I received a call from Eric and he said it was cancelled and I would not be charged. After reviewing my credit card statement a few weeks later I see a 1 day room charge on it. So I called in to get the charge removed and spent another hour on the phone with the manager Eric whom told me "I don't remember ever talking to you about this. I never called you" and the guest services manager at corporate (SHELBY) whom said "I don't know what you want! What do you want from me?" She was very unprofessional and rude and explained she did not have a boss for me to speak to. Knowing what guest services is supposed to be like from experience with the Sheraton this is unreal. I will never...I have stayed probably months in extended stays over the last few years with Central Transport. So I booked a reservation and then went to cancel it before the 6pm deadline. When I called the reservation line to cancel I spent over 3 hours on the phone trying to first cancel the reservation then to be sure I wasn't going to be charged. I spoke with a supervisor at the reservation line who told me he would make sure I was not charged and he also told me ERIC the manger from the hotel would call me and just confirm it was all taken care of. I received a call from Eric and he said it was cancelled and I would not be charged. After reviewing my credit card statement a few weeks later I see a 1 day room charge on it. So I called in to get the charge removed and spent another hour on the phone with the manager Eric whom told me "I don't remember ever talking to you about this. I never called you" and the guest services manager at corporate (SHELBY) whom said "I don't know what you want! What do you want from me?" She was very unprofessional and rude and explained she did not have a boss for me to speak to. Knowing what guest services is supposed to be like from experience with the Sheraton this is unreal. I will never use extended stay again after all this hassle to get a 60 dollar charge off my card! 60 dollars! You lost a great customer whom would book months with you guys over 60 dollars! Tip for corporate get employees who actually want to offer customer service and not just collect a paycheck every week!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed probably months in extended stays over the last few years with Central Transport. So I booked a reservation and then went to cancel it before the 6pm deadline. When I called the reservation line to cancel I spent over 3 hours on the phone trying to first cancel the reservation then to be sure I wasn't going to be charged. I spoke with a supervisor at the reservation line who told me he would make sure I was not charged and he also told me ERIC the manger from the hotel would call me and just confirm it was all taken care of. I received a call from Eric and he said it was cancelled and I would not be charged. After reviewing my credit card statement a few weeks later I see a 1 day room charge on it. So I called in to get the charge removed and spent another hour on the phone with the manager Eric whom told me "I don't remember ever talking to you about this. I never called you" and the guest services manager at corporate (SHELBY) whom said "I don't know what you want! What do you want from me?" She was very unprofessional and rude and explained she did not have a boss for me to speak to. Knowing what guest services is supposed to be like from experience with the Sheraton this is unreal. I will never...I have stayed probably months in extended stays over the last few years with Central Transport. So I booked a reservation and then went to cancel it before the 6pm deadline. When I called the reservation line to cancel I spent over 3 hours on the phone trying to first cancel the reservation then to be sure I wasn't going to be charged. I spoke with a supervisor at the reservation line who told me he would make sure I was not charged and he also told me ERIC the manger from the hotel would call me and just confirm it was all taken care of. I received a call from Eric and he said it was cancelled and I would not be charged. After reviewing my credit card statement a few weeks later I see a 1 day room charge on it. So I called in to get the charge removed and spent another hour on the phone with the manager Eric whom told me "I don't remember ever talking to you about this. I never called you" and the guest services manager at corporate (SHELBY) whom said "I don't know what you want! What do you want from me?" She was very unprofessional and rude and explained she did not have a boss for me to speak to. Knowing what guest services is supposed to be like from experience with the Sheraton this is unreal. I will never use extended stay again after all this hassle to get a 60 dollar charge off my card! 60 dollars! You lost a great customer whom would book months with you guys over 60 dollars! Tip for corporate get employees who actually want to offer customer service and not just collect a paycheck every week!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r498373427-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498373427</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Never Coming Back</t>
+  </si>
+  <si>
+    <t>A deluxe suite was booked with a queen bed and pull out sofa but we were given a room with two full size beds. When trying to get the room corrected we were told that there were no more available even though we were able to book it online. Housekeeping never came to clean the room so we had to go to the front desk to request new towels. We had to contact the front desk by cell phone because the room phone had no front desk button nor did it have an extension number. The sink had a leak. There was a roach crawling in the restroom. The lamp plug kept falling out of the outlets as well as our phone chargers (because of the sockets). The clock kept making a buzzing sound so it had to be unplugged the duration of our stay.I am completely dissatisfied and will not be staying at this location again. A friend was visiting Texas for the first time and it's embarrassing that he witnessed this type of service during our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>A deluxe suite was booked with a queen bed and pull out sofa but we were given a room with two full size beds. When trying to get the room corrected we were told that there were no more available even though we were able to book it online. Housekeeping never came to clean the room so we had to go to the front desk to request new towels. We had to contact the front desk by cell phone because the room phone had no front desk button nor did it have an extension number. The sink had a leak. There was a roach crawling in the restroom. The lamp plug kept falling out of the outlets as well as our phone chargers (because of the sockets). The clock kept making a buzzing sound so it had to be unplugged the duration of our stay.I am completely dissatisfied and will not be staying at this location again. A friend was visiting Texas for the first time and it's embarrassing that he witnessed this type of service during our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r495760896-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495760896</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Bad services</t>
+  </si>
+  <si>
+    <t>Stinky rooms the restroom did not work. Went to another hotel not part of extended stay and I received better service.  With more clean room and more professional staff  ectebd stay has a very bad  servicesMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Stinky rooms the restroom did not work. Went to another hotel not part of extended stay and I received better service.  With more clean room and more professional staff  ectebd stay has a very bad  servicesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r492019629-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492019629</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>The Staff was Excellent and Check in was quick with no hassel</t>
+  </si>
+  <si>
+    <t>Room was clean and had all essentials. Staff was friendly, Hotel is located close to shopping,and hospital,My Next door neighbors were friendly, The Area is quiet,They have police that patrol the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded June 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2017</t>
+  </si>
+  <si>
+    <t>Room was clean and had all essentials. Staff was friendly, Hotel is located close to shopping,and hospital,My Next door neighbors were friendly, The Area is quiet,They have police that patrol the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r384470407-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384470407</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Stay Away</t>
+  </si>
+  <si>
+    <t>Horrible experience at this hotel. After driving more than 12 hours we got to the hotel around midnight. After checking in we got a room that was terribly dirty, bath walls full of mold, hanging curtains, damages refrigerator. After going back to the reception we got switched to another room of course after the front desk lady checked like three rooms to find a clean one. I am allergic to cigarette smoke and after waiting more than a one to get a place to rest we got a room - A SMOKING ROOM!!! This place is  disgustingly dirty and it is not worth even the low rate!!</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r381227708-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381227708</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>��</t>
+  </si>
+  <si>
+    <t>Be smart! I wasn't. Rude not accommodating and NASTY. Hair in the bathroom. Where you ask? EVERYWHERE. I think it may be the area. IDK but wat I do know is that next time I will pay a lil more for a comfort suites.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r379631359-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379631359</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>We stayed here to be close to Middlebrook</t>
+  </si>
+  <si>
+    <t>We were told that these people gave discounts for cancer patients! This place is filthy!!!! We arrived around 10 p.m. after a long day of driving and a hospital procedure. The exterior of the 3rd building had disgusting litter (rotted milk on the stairway, tobacco stuck in it, and random trash. There were people outside drinking and hanging out. The first room they assigned us smelled BAD and was a single...we needed a double so they assigned us another room. This room smelled better since there was an air freshener in the room. The outside mat was really useless because it looked like it hadn't been cleaned in months. There was litter scattered about on the outside as well. The lights did not work except for the kitchen area and bathroom. The carpets had holes and were sticky. There were only sheets on the bed so we called front desk and she gave us comforters. You could hear people walking about for much of the night and at 4 a.m. there was some type of altercation outside our door! The nightstand was filthy and the cabinets laminate was peeling from the bottom. NOT WORTH $100...MORE LIKE $50...SEEDY PLACE! PAY THE EXTRA MONEY AND STAY ELSEWHERE!MoreShow less</t>
+  </si>
+  <si>
+    <t>We were told that these people gave discounts for cancer patients! This place is filthy!!!! We arrived around 10 p.m. after a long day of driving and a hospital procedure. The exterior of the 3rd building had disgusting litter (rotted milk on the stairway, tobacco stuck in it, and random trash. There were people outside drinking and hanging out. The first room they assigned us smelled BAD and was a single...we needed a double so they assigned us another room. This room smelled better since there was an air freshener in the room. The outside mat was really useless because it looked like it hadn't been cleaned in months. There was litter scattered about on the outside as well. The lights did not work except for the kitchen area and bathroom. The carpets had holes and were sticky. There were only sheets on the bed so we called front desk and she gave us comforters. You could hear people walking about for much of the night and at 4 a.m. there was some type of altercation outside our door! The nightstand was filthy and the cabinets laminate was peeling from the bottom. NOT WORTH $100...MORE LIKE $50...SEEDY PLACE! PAY THE EXTRA MONEY AND STAY ELSEWHERE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r369047162-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369047162</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>Warning!  Not clean or Safe</t>
+  </si>
+  <si>
+    <t>My company has offices near this hotel.  We had meeting scheduled for April 27th and 28th and so 9 of us were booked at this hotel.  
+After checking in, I drove around to my room in the next building.  Empty beer cans and cigarette butts littered the staircase as I walked up the stairs to my room.  A charcoal grill was on the walkway in front of one of the rooms.  People were loitering around the stairwell and in the parking lot, drinking their beers and smoking. As a woman, I did not feel comfortable.
+I entered my room, turned around to shut the door and the thumb latch to lock the door was missing.  My room had not been vacuumed and the sheets did not look or smell fresh.  The comforter had several cigarette burns and the pillows were very flat.  Toilet paper was missing from the bathroom.  There was cigarette ash on the dresser and carpet.  This was a non smoking room.
+I contacted front desk and asked for a clean room.  I was told no rooms were available.  I told front desk that I was not staying in the room and to credit my card.  A room became available.  I went to get the key, went around the corner to the new room.  As I walked in, the lights did not go on when switch was flipped.  I was able to plug in the lamp on the...My company has offices near this hotel.  We had meeting scheduled for April 27th and 28th and so 9 of us were booked at this hotel.  After checking in, I drove around to my room in the next building.  Empty beer cans and cigarette butts littered the staircase as I walked up the stairs to my room.  A charcoal grill was on the walkway in front of one of the rooms.  People were loitering around the stairwell and in the parking lot, drinking their beers and smoking. As a woman, I did not feel comfortable.I entered my room, turned around to shut the door and the thumb latch to lock the door was missing.  My room had not been vacuumed and the sheets did not look or smell fresh.  The comforter had several cigarette burns and the pillows were very flat.  Toilet paper was missing from the bathroom.  There was cigarette ash on the dresser and carpet.  This was a non smoking room.I contacted front desk and asked for a clean room.  I was told no rooms were available.  I told front desk that I was not staying in the room and to credit my card.  A room became available.  I went to get the key, went around the corner to the new room.  As I walked in, the lights did not go on when switch was flipped.  I was able to plug in the lamp on the dresser.  At first glance, this room was a big improvement.  The floor looked cleaner, the pillows were fluffier, the comforter did not appear to have cigarette burns on it.  I went to turn on lamps by the bed.  The first lamp, would not turn on.  It looked like something metal was poking out of the outlet, so I did not pursue trying to turn on lamp.  I went to other side of bed and the button to turn on lamp was missing and there was no bulb in lamp.  The tv remote was missing.  I contacted the front desk to voice my concerns.  I let them know issues with room. I was told they would bring me a remote for tv.  I said I would try to take bulb from other lamp and see if maybe it would work.  After we hung up, I tried the bulb with no success.  I picked up phone again and it would not work.  I went to see bathroom and kitchen and found a roach on the bathroom door.  That was it for me.  I went to front and had them cancel my room.  One of my coworkers was there, his room had similar issues and there was a big wad of hair in his room.  I would not recommend this hotel for anyone.  I noticed that the manager responded to several of the bad reviews but based on what I saw, nothing has been done to correct any of the issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>My company has offices near this hotel.  We had meeting scheduled for April 27th and 28th and so 9 of us were booked at this hotel.  
+After checking in, I drove around to my room in the next building.  Empty beer cans and cigarette butts littered the staircase as I walked up the stairs to my room.  A charcoal grill was on the walkway in front of one of the rooms.  People were loitering around the stairwell and in the parking lot, drinking their beers and smoking. As a woman, I did not feel comfortable.
+I entered my room, turned around to shut the door and the thumb latch to lock the door was missing.  My room had not been vacuumed and the sheets did not look or smell fresh.  The comforter had several cigarette burns and the pillows were very flat.  Toilet paper was missing from the bathroom.  There was cigarette ash on the dresser and carpet.  This was a non smoking room.
+I contacted front desk and asked for a clean room.  I was told no rooms were available.  I told front desk that I was not staying in the room and to credit my card.  A room became available.  I went to get the key, went around the corner to the new room.  As I walked in, the lights did not go on when switch was flipped.  I was able to plug in the lamp on the...My company has offices near this hotel.  We had meeting scheduled for April 27th and 28th and so 9 of us were booked at this hotel.  After checking in, I drove around to my room in the next building.  Empty beer cans and cigarette butts littered the staircase as I walked up the stairs to my room.  A charcoal grill was on the walkway in front of one of the rooms.  People were loitering around the stairwell and in the parking lot, drinking their beers and smoking. As a woman, I did not feel comfortable.I entered my room, turned around to shut the door and the thumb latch to lock the door was missing.  My room had not been vacuumed and the sheets did not look or smell fresh.  The comforter had several cigarette burns and the pillows were very flat.  Toilet paper was missing from the bathroom.  There was cigarette ash on the dresser and carpet.  This was a non smoking room.I contacted front desk and asked for a clean room.  I was told no rooms were available.  I told front desk that I was not staying in the room and to credit my card.  A room became available.  I went to get the key, went around the corner to the new room.  As I walked in, the lights did not go on when switch was flipped.  I was able to plug in the lamp on the dresser.  At first glance, this room was a big improvement.  The floor looked cleaner, the pillows were fluffier, the comforter did not appear to have cigarette burns on it.  I went to turn on lamps by the bed.  The first lamp, would not turn on.  It looked like something metal was poking out of the outlet, so I did not pursue trying to turn on lamp.  I went to other side of bed and the button to turn on lamp was missing and there was no bulb in lamp.  The tv remote was missing.  I contacted the front desk to voice my concerns.  I let them know issues with room. I was told they would bring me a remote for tv.  I said I would try to take bulb from other lamp and see if maybe it would work.  After we hung up, I tried the bulb with no success.  I picked up phone again and it would not work.  I went to see bathroom and kitchen and found a roach on the bathroom door.  That was it for me.  I went to front and had them cancel my room.  One of my coworkers was there, his room had similar issues and there was a big wad of hair in his room.  I would not recommend this hotel for anyone.  I noticed that the manager responded to several of the bad reviews but based on what I saw, nothing has been done to correct any of the issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r351295332-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351295332</t>
+  </si>
+  <si>
+    <t>02/27/2016</t>
+  </si>
+  <si>
+    <t>Worse than places I have stayed in developing countries!</t>
+  </si>
+  <si>
+    <t>Very run down.  Did not meet my expectations compared to previous Extended Stay visits in other locations and how it was described and photos in listing.  1) Lobby looked run down; 2) I had to pre-pay for my stay as I checked in; 2) as I walked to my room, I saw garbage strewn in front of several room doors (this had not changed before I left after a multi-night stay, and I later saw abandoned mattresses lying in the parking lot; 3) while the room had been redecorated, the light switch upon entry did not work, the bed was not in good shape (made odd noises just sitting on it), and the upholstery of one of the stools was coming undone.  4) wifi was not truly free as advertised.  Only the very slow was free so I ended up spending $3.99/day extra in order to handle my work e-mail and calls.  5) It was very difficult to sleep due to the refrigerator made non-stop humming sounds and occasional knocking sounds, the toilet would sometimes "gurgle" randomly, and the heater/AC unit was very loud; 6) the toilet would not flush fully consistently; 7) no daily service available even for toilet paper - I had to go specially request at the front desk; 8) while the TV was newer and did get several cable stations, it was not a full lineup, several stations were "froze" with an image, one suddenly stopped...Very run down.  Did not meet my expectations compared to previous Extended Stay visits in other locations and how it was described and photos in listing.  1) Lobby looked run down; 2) I had to pre-pay for my stay as I checked in; 2) as I walked to my room, I saw garbage strewn in front of several room doors (this had not changed before I left after a multi-night stay, and I later saw abandoned mattresses lying in the parking lot; 3) while the room had been redecorated, the light switch upon entry did not work, the bed was not in good shape (made odd noises just sitting on it), and the upholstery of one of the stools was coming undone.  4) wifi was not truly free as advertised.  Only the very slow was free so I ended up spending $3.99/day extra in order to handle my work e-mail and calls.  5) It was very difficult to sleep due to the refrigerator made non-stop humming sounds and occasional knocking sounds, the toilet would sometimes "gurgle" randomly, and the heater/AC unit was very loud; 6) the toilet would not flush fully consistently; 7) no daily service available even for toilet paper - I had to go specially request at the front desk; 8) while the TV was newer and did get several cable stations, it was not a full lineup, several stations were "froze" with an image, one suddenly stopped working, and some with poor video quality; 7) Lastly, I killed a roach in the bathtub (and decided not to take a shower during my stay) and killed another small insect crawling on the floor.  I did not change to another hotel as I came to town late, and nothing had been available in the location that I needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Very run down.  Did not meet my expectations compared to previous Extended Stay visits in other locations and how it was described and photos in listing.  1) Lobby looked run down; 2) I had to pre-pay for my stay as I checked in; 2) as I walked to my room, I saw garbage strewn in front of several room doors (this had not changed before I left after a multi-night stay, and I later saw abandoned mattresses lying in the parking lot; 3) while the room had been redecorated, the light switch upon entry did not work, the bed was not in good shape (made odd noises just sitting on it), and the upholstery of one of the stools was coming undone.  4) wifi was not truly free as advertised.  Only the very slow was free so I ended up spending $3.99/day extra in order to handle my work e-mail and calls.  5) It was very difficult to sleep due to the refrigerator made non-stop humming sounds and occasional knocking sounds, the toilet would sometimes "gurgle" randomly, and the heater/AC unit was very loud; 6) the toilet would not flush fully consistently; 7) no daily service available even for toilet paper - I had to go specially request at the front desk; 8) while the TV was newer and did get several cable stations, it was not a full lineup, several stations were "froze" with an image, one suddenly stopped...Very run down.  Did not meet my expectations compared to previous Extended Stay visits in other locations and how it was described and photos in listing.  1) Lobby looked run down; 2) I had to pre-pay for my stay as I checked in; 2) as I walked to my room, I saw garbage strewn in front of several room doors (this had not changed before I left after a multi-night stay, and I later saw abandoned mattresses lying in the parking lot; 3) while the room had been redecorated, the light switch upon entry did not work, the bed was not in good shape (made odd noises just sitting on it), and the upholstery of one of the stools was coming undone.  4) wifi was not truly free as advertised.  Only the very slow was free so I ended up spending $3.99/day extra in order to handle my work e-mail and calls.  5) It was very difficult to sleep due to the refrigerator made non-stop humming sounds and occasional knocking sounds, the toilet would sometimes "gurgle" randomly, and the heater/AC unit was very loud; 6) the toilet would not flush fully consistently; 7) no daily service available even for toilet paper - I had to go specially request at the front desk; 8) while the TV was newer and did get several cable stations, it was not a full lineup, several stations were "froze" with an image, one suddenly stopped working, and some with poor video quality; 7) Lastly, I killed a roach in the bathtub (and decided not to take a shower during my stay) and killed another small insect crawling on the floor.  I did not change to another hotel as I came to town late, and nothing had been available in the location that I needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r350961042-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350961042</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Bad deal even if at a low price</t>
+  </si>
+  <si>
+    <t>This is a terrible Extended Stay America – among the worst temporary housing hotels I have ever seen.   I did not even complete the stay even though the reservation was completely paid in advance.  The room was so physically dirty I could not even comfortably remove my shoes and socks.  There was an odor which filled my clothes and suitcase which required me to put it all into the laundry after I checked-out.  You enter the hotel room immediately from the outside (there is no exterior door leading into hallway) so all the dirt and bacteria comes into the room and hotel cleaning service is very poor.  The room was so small my suitcase had to sit on the chair and I had to close the bathroom door to use the kitchen.  There is no desk in the room so I worked at the table.   The entire hotel is poorly maintained.  The lawn sprinkler outside my room was shooting water 25 feet into the air and my neighbor told me it was broken for several weeks.  Inside the hotel room the bathroom towel hooks were broken so I had to hang my towel on the door; the kitchen florescent light flickered so badly that I could not use the light; and the Wi-Fi was inconsistent and even completely off that I had to report the problem to the front desk.  I did not feel safe coming back to the hotel...This is a terrible Extended Stay America – among the worst temporary housing hotels I have ever seen.   I did not even complete the stay even though the reservation was completely paid in advance.  The room was so physically dirty I could not even comfortably remove my shoes and socks.  There was an odor which filled my clothes and suitcase which required me to put it all into the laundry after I checked-out.  You enter the hotel room immediately from the outside (there is no exterior door leading into hallway) so all the dirt and bacteria comes into the room and hotel cleaning service is very poor.  The room was so small my suitcase had to sit on the chair and I had to close the bathroom door to use the kitchen.  There is no desk in the room so I worked at the table.   The entire hotel is poorly maintained.  The lawn sprinkler outside my room was shooting water 25 feet into the air and my neighbor told me it was broken for several weeks.  Inside the hotel room the bathroom towel hooks were broken so I had to hang my towel on the door; the kitchen florescent light flickered so badly that I could not use the light; and the Wi-Fi was inconsistent and even completely off that I had to report the problem to the front desk.  I did not feel safe coming back to the hotel at night with smokers and drug users hanging out in the stairwell.  My final conclusion is that the management needs to be sacked because this hotel is a complete operational and design disaster.  Take my advice – even if it is a low price and seems like a good deal – avoid staying at this hotel and save yourself the frustration.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>This is a terrible Extended Stay America – among the worst temporary housing hotels I have ever seen.   I did not even complete the stay even though the reservation was completely paid in advance.  The room was so physically dirty I could not even comfortably remove my shoes and socks.  There was an odor which filled my clothes and suitcase which required me to put it all into the laundry after I checked-out.  You enter the hotel room immediately from the outside (there is no exterior door leading into hallway) so all the dirt and bacteria comes into the room and hotel cleaning service is very poor.  The room was so small my suitcase had to sit on the chair and I had to close the bathroom door to use the kitchen.  There is no desk in the room so I worked at the table.   The entire hotel is poorly maintained.  The lawn sprinkler outside my room was shooting water 25 feet into the air and my neighbor told me it was broken for several weeks.  Inside the hotel room the bathroom towel hooks were broken so I had to hang my towel on the door; the kitchen florescent light flickered so badly that I could not use the light; and the Wi-Fi was inconsistent and even completely off that I had to report the problem to the front desk.  I did not feel safe coming back to the hotel...This is a terrible Extended Stay America – among the worst temporary housing hotels I have ever seen.   I did not even complete the stay even though the reservation was completely paid in advance.  The room was so physically dirty I could not even comfortably remove my shoes and socks.  There was an odor which filled my clothes and suitcase which required me to put it all into the laundry after I checked-out.  You enter the hotel room immediately from the outside (there is no exterior door leading into hallway) so all the dirt and bacteria comes into the room and hotel cleaning service is very poor.  The room was so small my suitcase had to sit on the chair and I had to close the bathroom door to use the kitchen.  There is no desk in the room so I worked at the table.   The entire hotel is poorly maintained.  The lawn sprinkler outside my room was shooting water 25 feet into the air and my neighbor told me it was broken for several weeks.  Inside the hotel room the bathroom towel hooks were broken so I had to hang my towel on the door; the kitchen florescent light flickered so badly that I could not use the light; and the Wi-Fi was inconsistent and even completely off that I had to report the problem to the front desk.  I did not feel safe coming back to the hotel at night with smokers and drug users hanging out in the stairwell.  My final conclusion is that the management needs to be sacked because this hotel is a complete operational and design disaster.  Take my advice – even if it is a low price and seems like a good deal – avoid staying at this hotel and save yourself the frustration.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r276217236-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>276217236</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>No savings are worth this place!  Seedy motel!</t>
+  </si>
+  <si>
+    <t>My travel plans changed and I found myself searching for a place to stay on short notice, and budget was an issue.  I chose this MOTEL because the location is a nice area and I thought it would be safe, comfortable and well maintained property.  Having a SAFE place with a feeling of security, clean and equipped so I could prepare my own meals were the most important factors aside from price.  Immediately upon driving on to the property I felt as if I had crossed into a completely different world.  There were shady characters sitting out in front of the rooms smoking and watching everyone that went by - in a suspicious way.  The first room I was given was in a dark corner behind the stairway on the first floor - I didn't feel safe there at all.  I asked for a different room and it smelled of heavy cigarette smoke.  I was given a third room and walked in and felt as if I was in a seedy motel in the worst part of town.  It was old, outdated, plastic mattresses, tiny and it smelled of mold and mildew.  I had prepaid my reservation through Expedia - but was willing to lose it to find a different place to stay.  The young girl at the front desk was very helpful and gave me no flack or problems with cancelling.  I received confirmation from Expedia that I would...My travel plans changed and I found myself searching for a place to stay on short notice, and budget was an issue.  I chose this MOTEL because the location is a nice area and I thought it would be safe, comfortable and well maintained property.  Having a SAFE place with a feeling of security, clean and equipped so I could prepare my own meals were the most important factors aside from price.  Immediately upon driving on to the property I felt as if I had crossed into a completely different world.  There were shady characters sitting out in front of the rooms smoking and watching everyone that went by - in a suspicious way.  The first room I was given was in a dark corner behind the stairway on the first floor - I didn't feel safe there at all.  I asked for a different room and it smelled of heavy cigarette smoke.  I was given a third room and walked in and felt as if I was in a seedy motel in the worst part of town.  It was old, outdated, plastic mattresses, tiny and it smelled of mold and mildew.  I had prepaid my reservation through Expedia - but was willing to lose it to find a different place to stay.  The young girl at the front desk was very helpful and gave me no flack or problems with cancelling.  I received confirmation from Expedia that I would receive a full refund - so kudos to Expedia!  I drove around the corner and found a deluxe accommodation at the brand new Staybridge Suites.  Their rates are higher but the amenities and security are worth every penny more (which is not much even with regular rates.)   Beware - the photos and description are very misleading.  Extended Stay Willowbrook is a seedy dump!  Even at $50 a night it would be too much!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded June 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2015</t>
+  </si>
+  <si>
+    <t>My travel plans changed and I found myself searching for a place to stay on short notice, and budget was an issue.  I chose this MOTEL because the location is a nice area and I thought it would be safe, comfortable and well maintained property.  Having a SAFE place with a feeling of security, clean and equipped so I could prepare my own meals were the most important factors aside from price.  Immediately upon driving on to the property I felt as if I had crossed into a completely different world.  There were shady characters sitting out in front of the rooms smoking and watching everyone that went by - in a suspicious way.  The first room I was given was in a dark corner behind the stairway on the first floor - I didn't feel safe there at all.  I asked for a different room and it smelled of heavy cigarette smoke.  I was given a third room and walked in and felt as if I was in a seedy motel in the worst part of town.  It was old, outdated, plastic mattresses, tiny and it smelled of mold and mildew.  I had prepaid my reservation through Expedia - but was willing to lose it to find a different place to stay.  The young girl at the front desk was very helpful and gave me no flack or problems with cancelling.  I received confirmation from Expedia that I would...My travel plans changed and I found myself searching for a place to stay on short notice, and budget was an issue.  I chose this MOTEL because the location is a nice area and I thought it would be safe, comfortable and well maintained property.  Having a SAFE place with a feeling of security, clean and equipped so I could prepare my own meals were the most important factors aside from price.  Immediately upon driving on to the property I felt as if I had crossed into a completely different world.  There were shady characters sitting out in front of the rooms smoking and watching everyone that went by - in a suspicious way.  The first room I was given was in a dark corner behind the stairway on the first floor - I didn't feel safe there at all.  I asked for a different room and it smelled of heavy cigarette smoke.  I was given a third room and walked in and felt as if I was in a seedy motel in the worst part of town.  It was old, outdated, plastic mattresses, tiny and it smelled of mold and mildew.  I had prepaid my reservation through Expedia - but was willing to lose it to find a different place to stay.  The young girl at the front desk was very helpful and gave me no flack or problems with cancelling.  I received confirmation from Expedia that I would receive a full refund - so kudos to Expedia!  I drove around the corner and found a deluxe accommodation at the brand new Staybridge Suites.  Their rates are higher but the amenities and security are worth every penny more (which is not much even with regular rates.)   Beware - the photos and description are very misleading.  Extended Stay Willowbrook is a seedy dump!  Even at $50 a night it would be too much!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r261536878-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261536878</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Outdated and dirty - Stay away</t>
+  </si>
+  <si>
+    <t>This is supposed to be for "extended stays" but I didn't get the feeling they wanted you to stay at all. There is a kitchenette but no pots, pans, kettle, dishes, cups, or utensils. Every hotel has a coffee maker in each room; not this one. There was a very small shampoo, and two bars of soap, but no extra toilet paper. The roll that was there was ... dirty.The interior of the door looked like there had been several locks on it previously, but at least it did lock.Just as I put my keycard in I heard a very loud train whistle. I though "hoo boy, here we go". I didn't hear other trains that night though.I'm in town on business. When I came back from work at 6pm the bed was still unmade so I guess no service was done at all.I'll know better next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2015</t>
+  </si>
+  <si>
+    <t>This is supposed to be for "extended stays" but I didn't get the feeling they wanted you to stay at all. There is a kitchenette but no pots, pans, kettle, dishes, cups, or utensils. Every hotel has a coffee maker in each room; not this one. There was a very small shampoo, and two bars of soap, but no extra toilet paper. The roll that was there was ... dirty.The interior of the door looked like there had been several locks on it previously, but at least it did lock.Just as I put my keycard in I heard a very loud train whistle. I though "hoo boy, here we go". I didn't hear other trains that night though.I'm in town on business. When I came back from work at 6pm the bed was still unmade so I guess no service was done at all.I'll know better next trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r257748170-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257748170</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>RUN!!! There is no savings worth staying at this nasty hotel!</t>
+  </si>
+  <si>
+    <t>I'm stuck here from Sunday to Thursday, thank God tomorrow is checkout day! The front desk staff is friendly. That's it! My room is small &amp; in desperate need of updating &amp; just has a "dirty" feel to it! The bed is sunken in the center &amp; uncomfortable! A strange man was knocking on several doors Monday night. The walls are thin so you hear everything! The paint is peeling off the wall. The lamp shades are stained. The carpet is disgusting &amp; needs to be replaced (don't wear white socks!) The TV stand is broken so you have to sit on the floor to see the screen comfortably. The phone doesn't work! The wi-fi was down for most of our stay. The kitchen is NOT equipped! You have to ask for everything from the front desk &amp; it's hit or miss whether they'll have it. The first coffee pot was cracked all along the bottom, so I had coffee all over the floor. The refrigerator makes a very loud humming noise! Now for the bathroom: I'm afraid to use it, but I'm working 10 hour days &amp; sweating! I don't keep anything in it &amp; I keep the door closed! Bugs have come up from the sink drain. The shower is a joke! There is BLACK MOLD all over the tiles &amp; I've taken lots of pictures! The shower makes an awful "kill me now" noise. The shower head...I'm stuck here from Sunday to Thursday, thank God tomorrow is checkout day! The front desk staff is friendly. That's it! My room is small &amp; in desperate need of updating &amp; just has a "dirty" feel to it! The bed is sunken in the center &amp; uncomfortable! A strange man was knocking on several doors Monday night. The walls are thin so you hear everything! The paint is peeling off the wall. The lamp shades are stained. The carpet is disgusting &amp; needs to be replaced (don't wear white socks!) The TV stand is broken so you have to sit on the floor to see the screen comfortably. The phone doesn't work! The wi-fi was down for most of our stay. The kitchen is NOT equipped! You have to ask for everything from the front desk &amp; it's hit or miss whether they'll have it. The first coffee pot was cracked all along the bottom, so I had coffee all over the floor. The refrigerator makes a very loud humming noise! Now for the bathroom: I'm afraid to use it, but I'm working 10 hour days &amp; sweating! I don't keep anything in it &amp; I keep the door closed! Bugs have come up from the sink drain. The shower is a joke! There is BLACK MOLD all over the tiles &amp; I've taken lots of pictures! The shower makes an awful "kill me now" noise. The shower head only points straight down. All week, the water is luke warm at best; tonight it's just freezing cold, so now shower for me! After busting my butt all day today;  I have to do it again tomorrow &amp; then travel all night with no shower tonight! Steaming hot water in the kitchen, freezing cold water in the shower! I am extremely frustrated that I'll have to wash up in the kitchen sink tonight just to refresh a bit, but I absolutely cannot get past the black mold all over the shower tiles! I read reviews back to August of last year, the manager keeps replying saying they're sorry &amp; will look into it, but it seems nothing is being done to change the problems! I'm not the first (or even second) person to report having MOLD in their room! Does management not understand how dangerous mold is? I guarantee I'll be seeing my doctor as soon as I get home - being I'm allergic to pollen, dust &amp; mold! I am only still here because my company has sent me here for work &amp; they are paying through CLC for this room! I have sent two of my bosses my list of complaints about this room &amp; several pictures of the mold! They will most certainly be reporting this to CLC (not that it matters because I will be contacting them directly myself) and having this hotel removed from the list of "acceptable" hotels! When I come back next week with my two co-workers, my bosses assure me we will be staying at a different hotel!!! I've only experienced Extended Stay once before (St. Louis) and it was a beautiful hotel &amp; room! I was actually excited when I saw work booked us at another ESA! I will NEVER stay in a room with this chain again ... On my dime or anyone else's!! This place is a DUMP at best &amp; should be closed down immediately &amp; permanently!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm stuck here from Sunday to Thursday, thank God tomorrow is checkout day! The front desk staff is friendly. That's it! My room is small &amp; in desperate need of updating &amp; just has a "dirty" feel to it! The bed is sunken in the center &amp; uncomfortable! A strange man was knocking on several doors Monday night. The walls are thin so you hear everything! The paint is peeling off the wall. The lamp shades are stained. The carpet is disgusting &amp; needs to be replaced (don't wear white socks!) The TV stand is broken so you have to sit on the floor to see the screen comfortably. The phone doesn't work! The wi-fi was down for most of our stay. The kitchen is NOT equipped! You have to ask for everything from the front desk &amp; it's hit or miss whether they'll have it. The first coffee pot was cracked all along the bottom, so I had coffee all over the floor. The refrigerator makes a very loud humming noise! Now for the bathroom: I'm afraid to use it, but I'm working 10 hour days &amp; sweating! I don't keep anything in it &amp; I keep the door closed! Bugs have come up from the sink drain. The shower is a joke! There is BLACK MOLD all over the tiles &amp; I've taken lots of pictures! The shower makes an awful "kill me now" noise. The shower head...I'm stuck here from Sunday to Thursday, thank God tomorrow is checkout day! The front desk staff is friendly. That's it! My room is small &amp; in desperate need of updating &amp; just has a "dirty" feel to it! The bed is sunken in the center &amp; uncomfortable! A strange man was knocking on several doors Monday night. The walls are thin so you hear everything! The paint is peeling off the wall. The lamp shades are stained. The carpet is disgusting &amp; needs to be replaced (don't wear white socks!) The TV stand is broken so you have to sit on the floor to see the screen comfortably. The phone doesn't work! The wi-fi was down for most of our stay. The kitchen is NOT equipped! You have to ask for everything from the front desk &amp; it's hit or miss whether they'll have it. The first coffee pot was cracked all along the bottom, so I had coffee all over the floor. The refrigerator makes a very loud humming noise! Now for the bathroom: I'm afraid to use it, but I'm working 10 hour days &amp; sweating! I don't keep anything in it &amp; I keep the door closed! Bugs have come up from the sink drain. The shower is a joke! There is BLACK MOLD all over the tiles &amp; I've taken lots of pictures! The shower makes an awful "kill me now" noise. The shower head only points straight down. All week, the water is luke warm at best; tonight it's just freezing cold, so now shower for me! After busting my butt all day today;  I have to do it again tomorrow &amp; then travel all night with no shower tonight! Steaming hot water in the kitchen, freezing cold water in the shower! I am extremely frustrated that I'll have to wash up in the kitchen sink tonight just to refresh a bit, but I absolutely cannot get past the black mold all over the shower tiles! I read reviews back to August of last year, the manager keeps replying saying they're sorry &amp; will look into it, but it seems nothing is being done to change the problems! I'm not the first (or even second) person to report having MOLD in their room! Does management not understand how dangerous mold is? I guarantee I'll be seeing my doctor as soon as I get home - being I'm allergic to pollen, dust &amp; mold! I am only still here because my company has sent me here for work &amp; they are paying through CLC for this room! I have sent two of my bosses my list of complaints about this room &amp; several pictures of the mold! They will most certainly be reporting this to CLC (not that it matters because I will be contacting them directly myself) and having this hotel removed from the list of "acceptable" hotels! When I come back next week with my two co-workers, my bosses assure me we will be staying at a different hotel!!! I've only experienced Extended Stay once before (St. Louis) and it was a beautiful hotel &amp; room! I was actually excited when I saw work booked us at another ESA! I will NEVER stay in a room with this chain again ... On my dime or anyone else's!! This place is a DUMP at best &amp; should be closed down immediately &amp; permanently!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r244706706-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244706706</t>
+  </si>
+  <si>
+    <t>12/16/2014</t>
+  </si>
+  <si>
+    <t>Great Place for Long Stay</t>
+  </si>
+  <si>
+    <t>First off, I want to say that I NEVER write reviews, not even for apps or sellers whom I buy from on Amazon. This review is long overdue, but I wanted to write it because despite all the negative reviews on here, I really did have a good experience. I figure that those who bother to write hotel reviews are the ones who have something negative to say, not positive or satisfactory, so I want to change that.
+I stayed here by myself for 3 months during Summer 2014. I searched for many options around the Northwest Houston area, both apts and hotel rooms with kitchenette, and originally didn't want to stay here because the reviews were so bad. But I took the plunge anyway because I wanted to save money and I've dealt with crazy housing problems as a college student, so I figure I can just fix what I need to on my own or fight it out with management if problems came up.
+First day, I arrived an hour early before the check-in time, because I forgot that I was now in a new time zone. So I went to the grocery store and drove around to get to know the area. After checking in, I went to move my 3 months of stuff into the room, and you know what? The room looked EXACTLY like the company photos (see my photos). Cups, bowls, silverware, toaster, and...First off, I want to say that I NEVER write reviews, not even for apps or sellers whom I buy from on Amazon. This review is long overdue, but I wanted to write it because despite all the negative reviews on here, I really did have a good experience. I figure that those who bother to write hotel reviews are the ones who have something negative to say, not positive or satisfactory, so I want to change that.I stayed here by myself for 3 months during Summer 2014. I searched for many options around the Northwest Houston area, both apts and hotel rooms with kitchenette, and originally didn't want to stay here because the reviews were so bad. But I took the plunge anyway because I wanted to save money and I've dealt with crazy housing problems as a college student, so I figure I can just fix what I need to on my own or fight it out with management if problems came up.First day, I arrived an hour early before the check-in time, because I forgot that I was now in a new time zone. So I went to the grocery store and drove around to get to know the area. After checking in, I went to move my 3 months of stuff into the room, and you know what? The room looked EXACTLY like the company photos (see my photos). Cups, bowls, silverware, toaster, and microwave were provided. Fridge was working. Shower water pressure was just right. No cockroaches. Everything was clean. I got a non-smoking room, just like I requested. And also, 30min after I checked in, I got a call from the front desk asking me if I found the room to be satisfactory! So nice.Throughout my stay, I feel like this was a pretty safe place despite the motel style. Quiet at night. Sometimes you'll see sketchy people, but really, everyone from the Porche and Lexus roadster owners to the beat-up pickup truck Average Joe's stayed here. My room was always cleaned on the same day every single week. Obviously, don't expect housekeeping to do your dishes; that's for you to take care of. The front desk staff was always very nice and accommodating. Breakfast is grab-and-go style, which was great because I could just eat on my way to work or at work. Good variety of choices - muffins, oatmeal, 2 types of coffee, tea, cereal bars, fruit. Internet speed wasn't bad; enough for the occasional Skype and light browsing. A/C always worked. Sometimes the dog in the room next to you will be yappy... That only happened to me once over a couple days. Otherwise the dogs that stayed here were very well behaved. Yes I did have to deal with the occasional bug, but didn't appear until about 2 months in and not enough to bother me. Bugs are unavoidable with food around, despite me being an organized person and room being cleaned once a week.I wouldn't recommend staying here if for a lot of people. It's comfortable as a single person, two would be the limit due to size of room. Again, everything I mentioned above about room condition, staff, housekeeping, etc. stayed consistent throughout my entire stay. I love the fact that it's right next to some great restaurants and a Whataburger. The mall is right down the road, as is many shopping centers. So great location! Except that it's not a short drive to the more fun parts of Houston.Don't know if this makes a difference, but I stayed in the same building as where the front desk was located. I think the rooms there are renovated. Sometimes at night I'd walk by an empty room that's lit inside and ready for check-in. Looks just like what I saw on my first day - clean and same style. This place was pretty great over a 3 month stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded January 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2015</t>
+  </si>
+  <si>
+    <t>First off, I want to say that I NEVER write reviews, not even for apps or sellers whom I buy from on Amazon. This review is long overdue, but I wanted to write it because despite all the negative reviews on here, I really did have a good experience. I figure that those who bother to write hotel reviews are the ones who have something negative to say, not positive or satisfactory, so I want to change that.
+I stayed here by myself for 3 months during Summer 2014. I searched for many options around the Northwest Houston area, both apts and hotel rooms with kitchenette, and originally didn't want to stay here because the reviews were so bad. But I took the plunge anyway because I wanted to save money and I've dealt with crazy housing problems as a college student, so I figure I can just fix what I need to on my own or fight it out with management if problems came up.
+First day, I arrived an hour early before the check-in time, because I forgot that I was now in a new time zone. So I went to the grocery store and drove around to get to know the area. After checking in, I went to move my 3 months of stuff into the room, and you know what? The room looked EXACTLY like the company photos (see my photos). Cups, bowls, silverware, toaster, and...First off, I want to say that I NEVER write reviews, not even for apps or sellers whom I buy from on Amazon. This review is long overdue, but I wanted to write it because despite all the negative reviews on here, I really did have a good experience. I figure that those who bother to write hotel reviews are the ones who have something negative to say, not positive or satisfactory, so I want to change that.I stayed here by myself for 3 months during Summer 2014. I searched for many options around the Northwest Houston area, both apts and hotel rooms with kitchenette, and originally didn't want to stay here because the reviews were so bad. But I took the plunge anyway because I wanted to save money and I've dealt with crazy housing problems as a college student, so I figure I can just fix what I need to on my own or fight it out with management if problems came up.First day, I arrived an hour early before the check-in time, because I forgot that I was now in a new time zone. So I went to the grocery store and drove around to get to know the area. After checking in, I went to move my 3 months of stuff into the room, and you know what? The room looked EXACTLY like the company photos (see my photos). Cups, bowls, silverware, toaster, and microwave were provided. Fridge was working. Shower water pressure was just right. No cockroaches. Everything was clean. I got a non-smoking room, just like I requested. And also, 30min after I checked in, I got a call from the front desk asking me if I found the room to be satisfactory! So nice.Throughout my stay, I feel like this was a pretty safe place despite the motel style. Quiet at night. Sometimes you'll see sketchy people, but really, everyone from the Porche and Lexus roadster owners to the beat-up pickup truck Average Joe's stayed here. My room was always cleaned on the same day every single week. Obviously, don't expect housekeeping to do your dishes; that's for you to take care of. The front desk staff was always very nice and accommodating. Breakfast is grab-and-go style, which was great because I could just eat on my way to work or at work. Good variety of choices - muffins, oatmeal, 2 types of coffee, tea, cereal bars, fruit. Internet speed wasn't bad; enough for the occasional Skype and light browsing. A/C always worked. Sometimes the dog in the room next to you will be yappy... That only happened to me once over a couple days. Otherwise the dogs that stayed here were very well behaved. Yes I did have to deal with the occasional bug, but didn't appear until about 2 months in and not enough to bother me. Bugs are unavoidable with food around, despite me being an organized person and room being cleaned once a week.I wouldn't recommend staying here if for a lot of people. It's comfortable as a single person, two would be the limit due to size of room. Again, everything I mentioned above about room condition, staff, housekeeping, etc. stayed consistent throughout my entire stay. I love the fact that it's right next to some great restaurants and a Whataburger. The mall is right down the road, as is many shopping centers. So great location! Except that it's not a short drive to the more fun parts of Houston.Don't know if this makes a difference, but I stayed in the same building as where the front desk was located. I think the rooms there are renovated. Sometimes at night I'd walk by an empty room that's lit inside and ready for check-in. Looks just like what I saw on my first day - clean and same style. This place was pretty great over a 3 month stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r240201777-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240201777</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>Not pleased!</t>
+  </si>
+  <si>
+    <t>My friend and I stayed for two nights and it was a total disaster. The staff is great but the rooms weren't, we checked in after audit and scoping out the room there were multiple hair strands on the sheets and pillows, the fridge did not work too well, there was some nasty looking stuff in the toilet, and the icing on the cake had to be the cockroach I woke up to crawling on my arm. We immediately left after that. Would I stay here again no, the next time I bisif houston I'll be sure to pay extra for a nice hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded November 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2014</t>
+  </si>
+  <si>
+    <t>My friend and I stayed for two nights and it was a total disaster. The staff is great but the rooms weren't, we checked in after audit and scoping out the room there were multiple hair strands on the sheets and pillows, the fridge did not work too well, there was some nasty looking stuff in the toilet, and the icing on the cake had to be the cockroach I woke up to crawling on my arm. We immediately left after that. Would I stay here again no, the next time I bisif houston I'll be sure to pay extra for a nice hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r237499892-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237499892</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>I stayed here for one night. The front desk attendant was rude. The outside seemed to be in good shape. I felt very safe. There was a security guard making rounds. The parking was great. I was able to pull right in front of my room.  When I opened the door to the room I was in very upset at how small the room was. It looked like a run down motel room. The television was small. There is a small kitchen but there were no utensils in the kitchen which made it useless. This was the smallest room I have ever been in. I am glad I was a solo traveler because the bed was only a full size bed. This would not be suitable for a couple or larger person. The bed was very uncomfortable. I thought about going and ask for a refund but I got a deal on hotwire.com so It was very inexpensive. I would not have paid regular price for this little box room at all. I was trying Extended Stay of for future traveling, but I will not be going to anymore of Extended Stay properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for one night. The front desk attendant was rude. The outside seemed to be in good shape. I felt very safe. There was a security guard making rounds. The parking was great. I was able to pull right in front of my room.  When I opened the door to the room I was in very upset at how small the room was. It looked like a run down motel room. The television was small. There is a small kitchen but there were no utensils in the kitchen which made it useless. This was the smallest room I have ever been in. I am glad I was a solo traveler because the bed was only a full size bed. This would not be suitable for a couple or larger person. The bed was very uncomfortable. I thought about going and ask for a refund but I got a deal on hotwire.com so It was very inexpensive. I would not have paid regular price for this little box room at all. I was trying Extended Stay of for future traveling, but I will not be going to anymore of Extended Stay properties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r236718136-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236718136</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>A bed to sleep on</t>
+  </si>
+  <si>
+    <t>This place offered little more than a bed to sleep on. My linens were clean but otherwise the room failed in every other way. My shower had missing tiles and a hole in the wall. It made a very loud vibrating noise when I tried to shower and on my last day I had no hot water. No extras like shampoo or Kleenex or coffee. Walls are very thin so you can hear everything your neighbors do. And the place is very hard to find, so when taking a cab/uber the drivers always struggled to find us. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded November 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2014</t>
+  </si>
+  <si>
+    <t>This place offered little more than a bed to sleep on. My linens were clean but otherwise the room failed in every other way. My shower had missing tiles and a hole in the wall. It made a very loud vibrating noise when I tried to shower and on my last day I had no hot water. No extras like shampoo or Kleenex or coffee. Walls are very thin so you can hear everything your neighbors do. And the place is very hard to find, so when taking a cab/uber the drivers always struggled to find us. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r226123537-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226123537</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Basic stay</t>
+  </si>
+  <si>
+    <t>I stayed in the single room.  Very basic.  Cleanliness was ok, could have been a little better (housekeeping)?  The only issue besides the uncomfortable bed was the desk ran out of towels on the weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>I stayed in the single room.  Very basic.  Cleanliness was ok, could have been a little better (housekeeping)?  The only issue besides the uncomfortable bed was the desk ran out of towels on the weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r220020410-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>220020410</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Love the decorations love how the room was set up. Did not like the bathrooms. There was mold, cracked tiles, water would run after turning it off. Other than that I loved my stay. No bugs which is a huge deal for me. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Love the decorations love how the room was set up. Did not like the bathrooms. There was mold, cracked tiles, water would run after turning it off. Other than that I loved my stay. No bugs which is a huge deal for me. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r204217124-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204217124</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>Bed bugs odor hair everything</t>
+  </si>
+  <si>
+    <t>Do not stay in this place.  If it were the last place to stay in Houston don't go.  Do the city a favor and allow this place to go under so that the company actually invests money into staffing and renovating.  The only reason I stayed here is because it was the only open place in Houston during a major conference.  I would have just as soon stayed home.  Not healthy, and unsafe.  One of my colleagues had a stranger come in during the middle of the night!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded May 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2014</t>
+  </si>
+  <si>
+    <t>Do not stay in this place.  If it were the last place to stay in Houston don't go.  Do the city a favor and allow this place to go under so that the company actually invests money into staffing and renovating.  The only reason I stayed here is because it was the only open place in Houston during a major conference.  I would have just as soon stayed home.  Not healthy, and unsafe.  One of my colleagues had a stranger come in during the middle of the night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r202421098-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>202421098</t>
+  </si>
+  <si>
+    <t>04/23/2014</t>
+  </si>
+  <si>
+    <t>Old room and disgusting odor!!</t>
+  </si>
+  <si>
+    <t>We arrived very late at night expecting to find the non smoking room we had asked for, but instead we found a room with such a disgusting odor to cigarette that it was impossible to normally breath inside. Also, I suffer from multiple.food allergies, that's why we choose this hotel because of the kitchen, but there was just a pot, a spoon and 2 bowls; no cooking utensils, no forks nor knifes, no glasses...nothing! So disappointed and disgusted with the old and smelly room that we had to leave immediately the next day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded April 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2014</t>
+  </si>
+  <si>
+    <t>We arrived very late at night expecting to find the non smoking room we had asked for, but instead we found a room with such a disgusting odor to cigarette that it was impossible to normally breath inside. Also, I suffer from multiple.food allergies, that's why we choose this hotel because of the kitchen, but there was just a pot, a spoon and 2 bowls; no cooking utensils, no forks nor knifes, no glasses...nothing! So disappointed and disgusted with the old and smelly room that we had to leave immediately the next day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r200932896-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200932896</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>Never again.</t>
+  </si>
+  <si>
+    <t>The manager was simply rude to the customers as well as the employees. When i first checked in my room had a leak under the sink and the mildew smell was all arond the room. I went back to the front desk and a young woman told me she had no other rooms to put me in, and i would have to wait until morning when people checked out. It was a horrible first night, but they changed the room in the morning. I walked in and said goodmorning to the manager and she said nothing back and walked away. She came back and gave me a new room. I felt unwelcome. Following these events my room was cleaned twice during my entire stay. I stayed there for one month on business and this one guy working in the office went above and beyond for me during my stay was the only person who made me feel espespecially welcome and I heard that the manager fired him for some odd reason and rumors circulated right before I left that she allegedly told an employee that there were too many black people working there and he had to go because he was a man as well. I will never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Owner at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded April 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2014</t>
+  </si>
+  <si>
+    <t>The manager was simply rude to the customers as well as the employees. When i first checked in my room had a leak under the sink and the mildew smell was all arond the room. I went back to the front desk and a young woman told me she had no other rooms to put me in, and i would have to wait until morning when people checked out. It was a horrible first night, but they changed the room in the morning. I walked in and said goodmorning to the manager and she said nothing back and walked away. She came back and gave me a new room. I felt unwelcome. Following these events my room was cleaned twice during my entire stay. I stayed there for one month on business and this one guy working in the office went above and beyond for me during my stay was the only person who made me feel espespecially welcome and I heard that the manager fired him for some odd reason and rumors circulated right before I left that she allegedly told an employee that there were too many black people working there and he had to go because he was a man as well. I will never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r191422796-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191422796</t>
+  </si>
+  <si>
+    <t>01/20/2014</t>
+  </si>
+  <si>
+    <t>Nice staff. Good room for the price</t>
+  </si>
+  <si>
+    <t>Location is behind a restaurant with heavy traffic so give yourself extra time when traveling.  Pet friendly.  Plenty of parking.  Location is clean.  Laundry room on site- small washers $2.00 per wash and dry</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r190681837-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190681837</t>
+  </si>
+  <si>
+    <t>01/12/2014</t>
+  </si>
+  <si>
+    <t>Northwest Houston area Extended Stay</t>
+  </si>
+  <si>
+    <t>I recommend the Willowbrook ESA because it's centrally located to anything needed from restaurants to shopping. The noise level is decent overall. My 2 month stay was pretty pleasant considering I had nothing from home to make it even better.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded January 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2014</t>
+  </si>
+  <si>
+    <t>I recommend the Willowbrook ESA because it's centrally located to anything needed from restaurants to shopping. The noise level is decent overall. My 2 month stay was pretty pleasant considering I had nothing from home to make it even better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r186597566-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186597566</t>
+  </si>
+  <si>
+    <t>12/02/2013</t>
+  </si>
+  <si>
+    <t>Not worth the price</t>
+  </si>
+  <si>
+    <t>The room was dirty and appeared to have mold growing in it.  The bathroom lighting was very poor and the water pressure in the shower horrible.  The bed and pillows were uncomfortable.  The room was supposed to be a queen suite, but the bed felt more like a full than a queen.  The room was tiny, not sufficient room for 2 people.  It was also noisy in the room, there was popping and settling noises coming from the kitchen area.  I turned the TV on for white noise to drown out the noises, but the TV turned itself off in the middle of the night, which woke me up.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded December 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2013</t>
+  </si>
+  <si>
+    <t>The room was dirty and appeared to have mold growing in it.  The bathroom lighting was very poor and the water pressure in the shower horrible.  The bed and pillows were uncomfortable.  The room was supposed to be a queen suite, but the bed felt more like a full than a queen.  The room was tiny, not sufficient room for 2 people.  It was also noisy in the room, there was popping and settling noises coming from the kitchen area.  I turned the TV on for white noise to drown out the noises, but the TV turned itself off in the middle of the night, which woke me up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r165455630-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165455630</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>Not Up to Par</t>
+  </si>
+  <si>
+    <t>I normally use this hotel when I travel on business to this part of Houston.  The accomodations are usually a very good, but not this time.  
+The hotel was renovated last year; however, they did not finish this room.  The kitchenette cabinets were not updated and were missing drawers; therefore, they were missing kitchen utensils and supplies.  The water filter on the kitchen sink was missing.  The shelving in the room was blistered and unclean.  The door lock was missing its backing, and the door had a sizable gap at the floor.  The bathroom shelving was not hung square and neither was the lavatory.  The shower tile needed cleaning as did the tub apron.  Painters tape held an errant piece of metal over the bathroom door frame.  (Painters tape does not provide a secure hold.)  There was no telephone in the room.  One of the lamps did not work.  
+My daughter and I managed, but it was a disappointing introduction to the hotel for her.  She asked if all the rooms were in this condition.  I assured her they were not.  I do hope that Extended Stay Willowbrook can repair the room.  I would have preferred being told that a room was not available and directed to another hotel rather than be given a substandard room, especially since I spent 40% of my 2012 work year at this hotel.  
+I do miss the front desk staff that is no longer...I normally use this hotel when I travel on business to this part of Houston.  The accomodations are usually a very good, but not this time.  The hotel was renovated last year; however, they did not finish this room.  The kitchenette cabinets were not updated and were missing drawers; therefore, they were missing kitchen utensils and supplies.  The water filter on the kitchen sink was missing.  The shelving in the room was blistered and unclean.  The door lock was missing its backing, and the door had a sizable gap at the floor.  The bathroom shelving was not hung square and neither was the lavatory.  The shower tile needed cleaning as did the tub apron.  Painters tape held an errant piece of metal over the bathroom door frame.  (Painters tape does not provide a secure hold.)  There was no telephone in the room.  One of the lamps did not work.  My daughter and I managed, but it was a disappointing introduction to the hotel for her.  She asked if all the rooms were in this condition.  I assured her they were not.  I do hope that Extended Stay Willowbrook can repair the room.  I would have preferred being told that a room was not available and directed to another hotel rather than be given a substandard room, especially since I spent 40% of my 2012 work year at this hotel.  I do miss the front desk staff that is no longer at this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded July 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2013</t>
+  </si>
+  <si>
+    <t>I normally use this hotel when I travel on business to this part of Houston.  The accomodations are usually a very good, but not this time.  
+The hotel was renovated last year; however, they did not finish this room.  The kitchenette cabinets were not updated and were missing drawers; therefore, they were missing kitchen utensils and supplies.  The water filter on the kitchen sink was missing.  The shelving in the room was blistered and unclean.  The door lock was missing its backing, and the door had a sizable gap at the floor.  The bathroom shelving was not hung square and neither was the lavatory.  The shower tile needed cleaning as did the tub apron.  Painters tape held an errant piece of metal over the bathroom door frame.  (Painters tape does not provide a secure hold.)  There was no telephone in the room.  One of the lamps did not work.  
+My daughter and I managed, but it was a disappointing introduction to the hotel for her.  She asked if all the rooms were in this condition.  I assured her they were not.  I do hope that Extended Stay Willowbrook can repair the room.  I would have preferred being told that a room was not available and directed to another hotel rather than be given a substandard room, especially since I spent 40% of my 2012 work year at this hotel.  
+I do miss the front desk staff that is no longer...I normally use this hotel when I travel on business to this part of Houston.  The accomodations are usually a very good, but not this time.  The hotel was renovated last year; however, they did not finish this room.  The kitchenette cabinets were not updated and were missing drawers; therefore, they were missing kitchen utensils and supplies.  The water filter on the kitchen sink was missing.  The shelving in the room was blistered and unclean.  The door lock was missing its backing, and the door had a sizable gap at the floor.  The bathroom shelving was not hung square and neither was the lavatory.  The shower tile needed cleaning as did the tub apron.  Painters tape held an errant piece of metal over the bathroom door frame.  (Painters tape does not provide a secure hold.)  There was no telephone in the room.  One of the lamps did not work.  My daughter and I managed, but it was a disappointing introduction to the hotel for her.  She asked if all the rooms were in this condition.  I assured her they were not.  I do hope that Extended Stay Willowbrook can repair the room.  I would have preferred being told that a room was not available and directed to another hotel rather than be given a substandard room, especially since I spent 40% of my 2012 work year at this hotel.  I do miss the front desk staff that is no longer at this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r159803772-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159803772</t>
+  </si>
+  <si>
+    <t>05/06/2013</t>
+  </si>
+  <si>
+    <t>The area was nice the hotel not so much..</t>
+  </si>
+  <si>
+    <t>Check in was easy.  Although getting receipts for everything was kind of a hassle.. Was told that the manager had to print the receipts and he doesn't work on the weekends.. We did eventually get the receipts. The bathroom had roaches in it. The T.V speaker was blown and made a horrible noise. Overall I would not stay here again.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r159697989-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159697989</t>
+  </si>
+  <si>
+    <t>05/05/2013</t>
+  </si>
+  <si>
+    <t>Billing problems and safety issues</t>
+  </si>
+  <si>
+    <t>Hotel did not honor my 'Extended Stay America' coupon discounts which I was relying on.   The bill from my room cost twice what I was quoted via the 1-800 reservation number which I had called the day before.   This is major error which I cannot afford, and am stuck to struggle through.  Also, I had booked this room via the Extended STay america 1-800 reservation number, I had requested a handicap and 'quiet' room, neither of which I recieved.  Upon check in, I was given a room that I was not able to navigate and was not safe for me.   And it was directly in the middle of heavy foot traffic and 24 hour/ a day noise :S    Yuck!Otherwise, the ladies at the front desk are amazing, sweet, and try to accomidate as best they can.  The hotel is in a residential neighborhood area, with lots of tree's, shopping, great places to eat, and just overall 'fun' place.    There have been several car break in's since I've been here, so far in one week I think 3 cars have been broken into.  If you stay here, just be careful, be safe, and talk with the long term hotel guests to navigate and be safe and get what you need.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel did not honor my 'Extended Stay America' coupon discounts which I was relying on.   The bill from my room cost twice what I was quoted via the 1-800 reservation number which I had called the day before.   This is major error which I cannot afford, and am stuck to struggle through.  Also, I had booked this room via the Extended STay america 1-800 reservation number, I had requested a handicap and 'quiet' room, neither of which I recieved.  Upon check in, I was given a room that I was not able to navigate and was not safe for me.   And it was directly in the middle of heavy foot traffic and 24 hour/ a day noise :S    Yuck!Otherwise, the ladies at the front desk are amazing, sweet, and try to accomidate as best they can.  The hotel is in a residential neighborhood area, with lots of tree's, shopping, great places to eat, and just overall 'fun' place.    There have been several car break in's since I've been here, so far in one week I think 3 cars have been broken into.  If you stay here, just be careful, be safe, and talk with the long term hotel guests to navigate and be safe and get what you need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r155243707-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155243707</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>A bit worn out</t>
+  </si>
+  <si>
+    <t>Had a minimum two hour wait from initial try to check in (18:15) before getting keys to my room ( Well past 20:00)Noisy fridge and aircon.Annoying train at 05:00 almost every morning.Did get a free dinner as compensation for the bad checkin.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded March 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2013</t>
+  </si>
+  <si>
+    <t>Had a minimum two hour wait from initial try to check in (18:15) before getting keys to my room ( Well past 20:00)Noisy fridge and aircon.Annoying train at 05:00 almost every morning.Did get a free dinner as compensation for the bad checkin.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r154327805-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154327805</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>If you don't mind cig butts , trash and unlocked doors . ..</t>
+  </si>
+  <si>
+    <t>Ok counted on Trip Advisor and was steered wrong again. Mounds of trash outside(see photo), cigarette butts everywhere outside, changed rooms due to a screaming kid, and we had a room that had broken into prior to our stay. The door could be pushed open from the outside. We were told it would get fixed the next morning. It wasn't. Got a maintenance guy to fix it but still needs work. Sad breakfast. Pass on this next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded March 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2013</t>
+  </si>
+  <si>
+    <t>Ok counted on Trip Advisor and was steered wrong again. Mounds of trash outside(see photo), cigarette butts everywhere outside, changed rooms due to a screaming kid, and we had a room that had broken into prior to our stay. The door could be pushed open from the outside. We were told it would get fixed the next morning. It wasn't. Got a maintenance guy to fix it but still needs work. Sad breakfast. Pass on this next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r153901915-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153901915</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I've experience new bed sheets that are very comfortable. Very clean rooms to perfection. My vacation was restful. Service was great and very nice employees. They serve breakfast that is very tasteful and you should come try.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded March 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2013</t>
+  </si>
+  <si>
+    <t>I've experience new bed sheets that are very comfortable. Very clean rooms to perfection. My vacation was restful. Service was great and very nice employees. They serve breakfast that is very tasteful and you should come try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r151982135-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151982135</t>
+  </si>
+  <si>
+    <t>02/12/2013</t>
+  </si>
+  <si>
+    <t>Excellent Hotel!</t>
+  </si>
+  <si>
+    <t>I have really enjoyed staying the past 2-weeks at this Extended Stay Hotel.  The staff is very nice and helpful.  Hotel rooms are clean and the hotel is conveniently located within 10-minutes of the Hewlett-Packard (HP) campus.  Several restaurants are within walking distance, including Pappadeaux, Pappasitos, and Whataburger.  The neighboring area is very safe and quiet -- one can easily get a good night's sleep.  Definitely recommend this Extended Stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded February 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2013</t>
+  </si>
+  <si>
+    <t>I have really enjoyed staying the past 2-weeks at this Extended Stay Hotel.  The staff is very nice and helpful.  Hotel rooms are clean and the hotel is conveniently located within 10-minutes of the Hewlett-Packard (HP) campus.  Several restaurants are within walking distance, including Pappadeaux, Pappasitos, and Whataburger.  The neighboring area is very safe and quiet -- one can easily get a good night's sleep.  Definitely recommend this Extended Stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r141911438-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141911438</t>
+  </si>
+  <si>
+    <t>10/03/2012</t>
+  </si>
+  <si>
+    <t>Unexpected Overnight Stay</t>
+  </si>
+  <si>
+    <t>A business trip that took more time than planned required that I find a hotel.  As it is conveniently located to the office that I was visiting, I called the hotel.  The staff was very accomodating and made special effort to ensure a room was available. The room was recently renovated, very clean, and very comfortable.I have stayed at this hotel several times over the last 12 months.  The staff is excellent.  Ms. Y. Pineda at the front desk is always professional, efficient, and pleasant.  I will use this hotel again when traveling to this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded October 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2012</t>
+  </si>
+  <si>
+    <t>A business trip that took more time than planned required that I find a hotel.  As it is conveniently located to the office that I was visiting, I called the hotel.  The staff was very accomodating and made special effort to ensure a room was available. The room was recently renovated, very clean, and very comfortable.I have stayed at this hotel several times over the last 12 months.  The staff is excellent.  Ms. Y. Pineda at the front desk is always professional, efficient, and pleasant.  I will use this hotel again when traveling to this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r140635073-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140635073</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>awesome staff</t>
+  </si>
+  <si>
+    <t>I spent several weeks at this hotel. During my stay they began renovations, and I have to say the staff during this time was excellant! The rooms definately needed the update and I'm excited to come back and stay in the new rooms! Eydie's entire staff were friendly, professional, and efficient. They took the time to get to know who i was, not just a room number but by name. It never matter what time of day or night I still got the same great service. This hotel is a good location, close to houston and plenty of restaurants, shopping, and grocery stores. i loved the kitchen in the room it was very nice to be able not HAVE to eat out if i didn't want to and the fact that they supply dishes, silerware, even a skillet and pot was extemely convienent. All in all i felt I definately got my money's worth!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded September 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2012</t>
+  </si>
+  <si>
+    <t>I spent several weeks at this hotel. During my stay they began renovations, and I have to say the staff during this time was excellant! The rooms definately needed the update and I'm excited to come back and stay in the new rooms! Eydie's entire staff were friendly, professional, and efficient. They took the time to get to know who i was, not just a room number but by name. It never matter what time of day or night I still got the same great service. This hotel is a good location, close to houston and plenty of restaurants, shopping, and grocery stores. i loved the kitchen in the room it was very nice to be able not HAVE to eat out if i didn't want to and the fact that they supply dishes, silerware, even a skillet and pot was extemely convienent. All in all i felt I definately got my money's worth!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1781,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1813,3432 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>151</v>
+      </c>
+      <c r="X14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O15" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>127</v>
+      </c>
+      <c r="O16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>127</v>
+      </c>
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>184</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>185</v>
+      </c>
+      <c r="X18" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>193</v>
+      </c>
+      <c r="O19" t="s">
+        <v>184</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>194</v>
+      </c>
+      <c r="X19" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s">
+        <v>201</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>202</v>
+      </c>
+      <c r="O20" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>203</v>
+      </c>
+      <c r="X20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>202</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>211</v>
+      </c>
+      <c r="X21" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s">
+        <v>218</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>219</v>
+      </c>
+      <c r="X22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>227</v>
+      </c>
+      <c r="O23" t="s">
+        <v>184</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" t="s">
+        <v>231</v>
+      </c>
+      <c r="L24" t="s">
+        <v>232</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>227</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>244</v>
+      </c>
+      <c r="O26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>246</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>247</v>
+      </c>
+      <c r="J27" t="s">
+        <v>248</v>
+      </c>
+      <c r="K27" t="s">
+        <v>249</v>
+      </c>
+      <c r="L27" t="s">
+        <v>250</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>251</v>
+      </c>
+      <c r="O27" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>252</v>
+      </c>
+      <c r="X27" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K28" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" t="s">
+        <v>259</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>260</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>252</v>
+      </c>
+      <c r="X28" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" t="s">
+        <v>266</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>267</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>268</v>
+      </c>
+      <c r="X29" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s">
+        <v>274</v>
+      </c>
+      <c r="L30" t="s">
+        <v>275</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>276</v>
+      </c>
+      <c r="O30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>277</v>
+      </c>
+      <c r="X30" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>281</v>
+      </c>
+      <c r="J31" t="s">
+        <v>282</v>
+      </c>
+      <c r="K31" t="s">
+        <v>283</v>
+      </c>
+      <c r="L31" t="s">
+        <v>284</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>276</v>
+      </c>
+      <c r="O31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>286</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>287</v>
+      </c>
+      <c r="J32" t="s">
+        <v>288</v>
+      </c>
+      <c r="K32" t="s">
+        <v>289</v>
+      </c>
+      <c r="L32" t="s">
+        <v>290</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>291</v>
+      </c>
+      <c r="O32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>292</v>
+      </c>
+      <c r="X32" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>295</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33" t="s">
+        <v>297</v>
+      </c>
+      <c r="K33" t="s">
+        <v>298</v>
+      </c>
+      <c r="L33" t="s">
+        <v>299</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>300</v>
+      </c>
+      <c r="X33" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>303</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>304</v>
+      </c>
+      <c r="J34" t="s">
+        <v>305</v>
+      </c>
+      <c r="K34" t="s">
+        <v>306</v>
+      </c>
+      <c r="L34" t="s">
+        <v>307</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>308</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>310</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>311</v>
+      </c>
+      <c r="J35" t="s">
+        <v>312</v>
+      </c>
+      <c r="K35" t="s">
+        <v>313</v>
+      </c>
+      <c r="L35" t="s">
+        <v>314</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>315</v>
+      </c>
+      <c r="X35" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>318</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>319</v>
+      </c>
+      <c r="J36" t="s">
+        <v>320</v>
+      </c>
+      <c r="K36" t="s">
+        <v>321</v>
+      </c>
+      <c r="L36" t="s">
+        <v>322</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>323</v>
+      </c>
+      <c r="O36" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>324</v>
+      </c>
+      <c r="X36" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>327</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>328</v>
+      </c>
+      <c r="J37" t="s">
+        <v>329</v>
+      </c>
+      <c r="K37" t="s">
+        <v>100</v>
+      </c>
+      <c r="L37" t="s">
+        <v>330</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>331</v>
+      </c>
+      <c r="X37" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>334</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>335</v>
+      </c>
+      <c r="J38" t="s">
+        <v>336</v>
+      </c>
+      <c r="K38" t="s">
+        <v>337</v>
+      </c>
+      <c r="L38" t="s">
+        <v>338</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>339</v>
+      </c>
+      <c r="X38" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>342</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>343</v>
+      </c>
+      <c r="J39" t="s">
+        <v>344</v>
+      </c>
+      <c r="K39" t="s">
+        <v>345</v>
+      </c>
+      <c r="L39" t="s">
+        <v>346</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>347</v>
+      </c>
+      <c r="X39" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>350</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>351</v>
+      </c>
+      <c r="J40" t="s">
+        <v>352</v>
+      </c>
+      <c r="K40" t="s">
+        <v>353</v>
+      </c>
+      <c r="L40" t="s">
+        <v>354</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>355</v>
+      </c>
+      <c r="X40" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>358</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>359</v>
+      </c>
+      <c r="J41" t="s">
+        <v>360</v>
+      </c>
+      <c r="K41" t="s">
+        <v>361</v>
+      </c>
+      <c r="L41" t="s">
+        <v>362</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>363</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>364</v>
+      </c>
+      <c r="J42" t="s">
+        <v>365</v>
+      </c>
+      <c r="K42" t="s">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s">
+        <v>367</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>368</v>
+      </c>
+      <c r="O42" t="s">
+        <v>77</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>369</v>
+      </c>
+      <c r="X42" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>372</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>373</v>
+      </c>
+      <c r="J43" t="s">
+        <v>374</v>
+      </c>
+      <c r="K43" t="s">
+        <v>375</v>
+      </c>
+      <c r="L43" t="s">
+        <v>376</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>368</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>377</v>
+      </c>
+      <c r="X43" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>380</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>381</v>
+      </c>
+      <c r="J44" t="s">
+        <v>382</v>
+      </c>
+      <c r="K44" t="s">
+        <v>383</v>
+      </c>
+      <c r="L44" t="s">
+        <v>384</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>385</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>386</v>
+      </c>
+      <c r="X44" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>389</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>390</v>
+      </c>
+      <c r="J45" t="s">
+        <v>391</v>
+      </c>
+      <c r="K45" t="s">
+        <v>392</v>
+      </c>
+      <c r="L45" t="s">
+        <v>393</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>394</v>
+      </c>
+      <c r="O45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>395</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>396</v>
+      </c>
+      <c r="J46" t="s">
+        <v>397</v>
+      </c>
+      <c r="K46" t="s">
+        <v>398</v>
+      </c>
+      <c r="L46" t="s">
+        <v>399</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>394</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>401</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>402</v>
+      </c>
+      <c r="J47" t="s">
+        <v>403</v>
+      </c>
+      <c r="K47" t="s">
+        <v>404</v>
+      </c>
+      <c r="L47" t="s">
+        <v>405</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>406</v>
+      </c>
+      <c r="X47" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>409</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>410</v>
+      </c>
+      <c r="J48" t="s">
+        <v>411</v>
+      </c>
+      <c r="K48" t="s">
+        <v>412</v>
+      </c>
+      <c r="L48" t="s">
+        <v>413</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>414</v>
+      </c>
+      <c r="X48" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>417</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>418</v>
+      </c>
+      <c r="J49" t="s">
+        <v>419</v>
+      </c>
+      <c r="K49" t="s">
+        <v>420</v>
+      </c>
+      <c r="L49" t="s">
+        <v>421</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>422</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>423</v>
+      </c>
+      <c r="X49" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>426</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>427</v>
+      </c>
+      <c r="J50" t="s">
+        <v>428</v>
+      </c>
+      <c r="K50" t="s">
+        <v>429</v>
+      </c>
+      <c r="L50" t="s">
+        <v>430</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>422</v>
+      </c>
+      <c r="O50" t="s">
+        <v>77</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>431</v>
+      </c>
+      <c r="X50" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>434</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>435</v>
+      </c>
+      <c r="J51" t="s">
+        <v>436</v>
+      </c>
+      <c r="K51" t="s">
+        <v>437</v>
+      </c>
+      <c r="L51" t="s">
+        <v>438</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>439</v>
+      </c>
+      <c r="O51" t="s">
+        <v>77</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>440</v>
+      </c>
+      <c r="X51" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>443</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>444</v>
+      </c>
+      <c r="J52" t="s">
+        <v>445</v>
+      </c>
+      <c r="K52" t="s">
+        <v>446</v>
+      </c>
+      <c r="L52" t="s">
+        <v>447</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>448</v>
+      </c>
+      <c r="O52" t="s">
+        <v>77</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>449</v>
+      </c>
+      <c r="X52" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_232.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_232.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="717">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r582444531-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>217744</t>
+  </si>
+  <si>
+    <t>582444531</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Houston Willowbrook Awesome</t>
+  </si>
+  <si>
+    <t>I have been staying here almost three months now The staff is very polite and helpful always there for you I appreciate all the services they give me and all that they offer me It is a clean place with beautiful grounds and is easy access from the main road. It is close to several restaurants and stores. Parking is great. The laundry room is big and very convenient to use and is never busy so no waiting. The wifi service is great. Just want to thank all the staff for being so awesomeMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded May 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2018</t>
+  </si>
+  <si>
+    <t>I have been staying here almost three months now The staff is very polite and helpful always there for you I appreciate all the services they give me and all that they offer me It is a clean place with beautiful grounds and is easy access from the main road. It is close to several restaurants and stores. Parking is great. The laundry room is big and very convenient to use and is never busy so no waiting. The wifi service is great. Just want to thank all the staff for being so awesomeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r569087984-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569087984</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>The employees were all helpful</t>
+  </si>
+  <si>
+    <t>The rooms are all clean and the motel is quiet. I enjoy staying at this motel. There has only been one bad experience I can think of, my girlfriend tried to pay for our room and was unable to pay for it on her own.  MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2018</t>
+  </si>
+  <si>
+    <t>The rooms are all clean and the motel is quiet. I enjoy staying at this motel. There has only been one bad experience I can think of, my girlfriend tried to pay for our room and was unable to pay for it on her own.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r580417749-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>217744</t>
-  </si>
-  <si>
     <t>580417749</t>
   </si>
   <si>
@@ -177,9 +231,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded May 15, 2018</t>
   </si>
   <si>
@@ -234,6 +285,57 @@
     <t>What a disappointment. The room was not very well cleaned. The floors had stains, the the refrigerator was dirty, there are cobwebs in the corners of the ceiling, and there was fast food trash left in one of the dresser drawers. The gentleman at the front desk was nice and found me a different room. This room wasn't any better but at least there wasn't any trash. The next day I couldn't shower because they ran out of towels. When I went to bed the roaches came out and at that point I was done. I couldn't get a hold of anyone at the front desk so I left at 1:30 in the morning and stayed somewhere else. When I came back and told the girl at the front desk, she acted like it was no big deal. I spoke to the main office and I am getting my money back. Never again!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r572856890-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572856890</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointing </t>
+  </si>
+  <si>
+    <t>I stayed here because my company booked this room for me but it is not very pleasant. Walking up to the room, the handrails are sticky and the steps dirty. Trash in the stairway. Opened the door to my room, very bad odor. Smells like musk and cigarettes. If I had to stay and use the kitchen area, I would have to clean everything first. Baby roaches found. Bathroom door is broken like if it was kicked or something. It's just not a comfortable feeling. I just want the time to go bye so I can just check out already.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here because my company booked this room for me but it is not very pleasant. Walking up to the room, the handrails are sticky and the steps dirty. Trash in the stairway. Opened the door to my room, very bad odor. Smells like musk and cigarettes. If I had to stay and use the kitchen area, I would have to clean everything first. Baby roaches found. Bathroom door is broken like if it was kicked or something. It's just not a comfortable feeling. I just want the time to go bye so I can just check out already.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r572433565-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572433565</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>It's been a pleasure!</t>
+  </si>
+  <si>
+    <t>Great place to stay in Houston with a great staff especially Nikki, she made my check in quick and painless! Couldn't have picked a better hotel with better staff, will definitely recommend it to all my friends and family!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Great place to stay in Houston with a great staff especially Nikki, she made my check in quick and painless! Couldn't have picked a better hotel with better staff, will definitely recommend it to all my friends and family!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r572243115-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -249,9 +351,6 @@
     <t>I've been here over a year and a half and have seen many people come and go. Since getting to know Nikki Scott I have to say I've enjoyed going to the office. She always makes me smile and more importantly takes care of my requests immediately!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded April 9, 2018</t>
   </si>
   <si>
@@ -294,9 +393,6 @@
     <t>me and my friend came in to get our room and she was handling 6 people in the lobby while still on the phone and providing good service to everyone. I don’t know what your other workers are like but she was doing a great job. during the whole stressful situation she was happy, friendly, and helpful.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -309,6 +405,60 @@
     <t>me and my friend came in to get our room and she was handling 6 people in the lobby while still on the phone and providing good service to everyone. I don’t know what your other workers are like but she was doing a great job. during the whole stressful situation she was happy, friendly, and helpful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r565620510-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565620510</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>Paige</t>
+  </si>
+  <si>
+    <t>Service at the start of check in was perfect. I checked in and everything was fine unti I entered the room. I always check my sheets first There was spots on the sheets and pillow cases. Asked for new sheets and never received any I checked in late but had to be to work at 3am so I made a complaint the next morning about the mold on the restroom walls and asked for a different room. No one returned my phone call. Left the room a day earlier than i was scheduled to. The chair was broken the room was just not in good condition MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded March 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2018</t>
+  </si>
+  <si>
+    <t>Service at the start of check in was perfect. I checked in and everything was fine unti I entered the room. I always check my sheets first There was spots on the sheets and pillow cases. Asked for new sheets and never received any I checked in late but had to be to work at 3am so I made a complaint the next morning about the mold on the restroom walls and asked for a different room. No one returned my phone call. Left the room a day earlier than i was scheduled to. The chair was broken the room was just not in good condition More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r561034957-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>561034957</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>Excellent customer service</t>
+  </si>
+  <si>
+    <t>The rooms were clean. And the staff was very friendly and accommodating. All special request i asked were seen to. Shopping is literally right outside your door as well fine dinning. Clean grounds newly renovated.i had a great stayMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded February 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2018</t>
+  </si>
+  <si>
+    <t>The rooms were clean. And the staff was very friendly and accommodating. All special request i asked were seen to. Shopping is literally right outside your door as well fine dinning. Clean grounds newly renovated.i had a great stayMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r560889186-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -324,9 +474,6 @@
     <t>Good afternoon , I been here for about. 3 weeks now. Ms. Nikki has been such a big help. She greets with a great warm smile and shows her concerns. Upon my arrival, she picked up I was very depressed and made it her goal to make me feel better. Thank you ms Nikki i really needed that. property is cleaned daily.  The property manger is very kind and concerned with the safety of property. There's on night security. Great place to stay..... Thank you my love bugs for being so wonderful.  Be blessed and I'll see you again....                                            Deon Ecckles MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded February 17, 2018</t>
   </si>
   <si>
@@ -384,6 +531,57 @@
     <t>Toilet seat was filthy and beat down. Makes me want to vomit. Staff was very nice, especially Nikki who was friendly and helpful. I've been here many times but it seems to get worst everyday. It's beginning to become a cheap motel, unless they start upgrading some basic things! Toilet seat cost like $10 at Walmart!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r556565063-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556565063</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>Room not cleaned but once a week pillows not very good. Price was good so I stayed. Some secthy people walking around but nothing was stolen or had any trouble. It seem under staffed. I would stay again but with understanding about having the rooms cleaned. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded January 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2018</t>
+  </si>
+  <si>
+    <t>Room not cleaned but once a week pillows not very good. Price was good so I stayed. Some secthy people walking around but nothing was stolen or had any trouble. It seem under staffed. I would stay again but with understanding about having the rooms cleaned. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r556235448-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556235448</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>WORST EXPERIENCE</t>
+  </si>
+  <si>
+    <t>Felt terrified and at risk of diseases and safety the entire time. Doors didn't lock or work, and the room was full of mostly broken furniture but at least the roaches were friendly!! The first room assigned to us was so smokey, my throat started hurting! It was all the signs around the room proudly declaring the room "smoke free" that finally pushed me to report the room to the front desk. The door being ajar? A handful of hair in the bottom of the tub? No big deal, right? The room was freezing, and I had a tough time locating the 1992 heating unit under the window! There are starving children throughout the world! I politely told the front desk who immediately helped me find another room. The second room, the front door was open... I find the most disgusting "hair ball"? inside a "new" cup, and the room smelled of a freshly taken dump. With the heater blasting, it made for quite the unpleasant welcoming feeling you should have after flying all day, being stuck inside a cab with a hateful Jehovah witness who takes you to the wrong Extended Stay. By the time I went BACK to the front desk, lugging my luggage up, down and around the property for the 3rd time, I got to know some of the other guests just trying to check into a clean and safe room that night. We were keeping...Felt terrified and at risk of diseases and safety the entire time. Doors didn't lock or work, and the room was full of mostly broken furniture but at least the roaches were friendly!! The first room assigned to us was so smokey, my throat started hurting! It was all the signs around the room proudly declaring the room "smoke free" that finally pushed me to report the room to the front desk. The door being ajar? A handful of hair in the bottom of the tub? No big deal, right? The room was freezing, and I had a tough time locating the 1992 heating unit under the window! There are starving children throughout the world! I politely told the front desk who immediately helped me find another room. The second room, the front door was open... I find the most disgusting "hair ball"? inside a "new" cup, and the room smelled of a freshly taken dump. With the heater blasting, it made for quite the unpleasant welcoming feeling you should have after flying all day, being stuck inside a cab with a hateful Jehovah witness who takes you to the wrong Extended Stay. By the time I went BACK to the front desk, lugging my luggage up, down and around the property for the 3rd time, I got to know some of the other guests just trying to check into a clean and safe room that night. We were keeping track of which rooms we had already seen and decided were unsafe. The third room, the nice front desk employee said after checking the room first, "that's as clean as they are going to get"!!!!!!! The door had obviously been busted down before and had some trouble getting it to open. By this time I was beaten and exhausted after such a long day and having to lug my bags up and down the stairs. The nice clerk and clearly done a rinse down of the tub, leading me to believe that he was trying his hardest. I pulled back the sheets and found multiple hairs. The bolt on the door wouldn't lock so I had to push a heavy dresser in front of the door and just hope for the best. My cousins are the ones who made the reservation, clearly before reading the Yelp reviews about how most of the doors don't lock in the place! I slept fully dressed, on top of the sheets (which I had wiped the hairs off of), fully dressed, too scared to shower alone in the filthy tub which had stains and crud build up, dresser in front of the door, and scared for my life, safety and well-being. It wasn't until after I showered the next day in my socks that the roaches starting coming out of shower drain.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Felt terrified and at risk of diseases and safety the entire time. Doors didn't lock or work, and the room was full of mostly broken furniture but at least the roaches were friendly!! The first room assigned to us was so smokey, my throat started hurting! It was all the signs around the room proudly declaring the room "smoke free" that finally pushed me to report the room to the front desk. The door being ajar? A handful of hair in the bottom of the tub? No big deal, right? The room was freezing, and I had a tough time locating the 1992 heating unit under the window! There are starving children throughout the world! I politely told the front desk who immediately helped me find another room. The second room, the front door was open... I find the most disgusting "hair ball"? inside a "new" cup, and the room smelled of a freshly taken dump. With the heater blasting, it made for quite the unpleasant welcoming feeling you should have after flying all day, being stuck inside a cab with a hateful Jehovah witness who takes you to the wrong Extended Stay. By the time I went BACK to the front desk, lugging my luggage up, down and around the property for the 3rd time, I got to know some of the other guests just trying to check into a clean and safe room that night. We were keeping...Felt terrified and at risk of diseases and safety the entire time. Doors didn't lock or work, and the room was full of mostly broken furniture but at least the roaches were friendly!! The first room assigned to us was so smokey, my throat started hurting! It was all the signs around the room proudly declaring the room "smoke free" that finally pushed me to report the room to the front desk. The door being ajar? A handful of hair in the bottom of the tub? No big deal, right? The room was freezing, and I had a tough time locating the 1992 heating unit under the window! There are starving children throughout the world! I politely told the front desk who immediately helped me find another room. The second room, the front door was open... I find the most disgusting "hair ball"? inside a "new" cup, and the room smelled of a freshly taken dump. With the heater blasting, it made for quite the unpleasant welcoming feeling you should have after flying all day, being stuck inside a cab with a hateful Jehovah witness who takes you to the wrong Extended Stay. By the time I went BACK to the front desk, lugging my luggage up, down and around the property for the 3rd time, I got to know some of the other guests just trying to check into a clean and safe room that night. We were keeping track of which rooms we had already seen and decided were unsafe. The third room, the nice front desk employee said after checking the room first, "that's as clean as they are going to get"!!!!!!! The door had obviously been busted down before and had some trouble getting it to open. By this time I was beaten and exhausted after such a long day and having to lug my bags up and down the stairs. The nice clerk and clearly done a rinse down of the tub, leading me to believe that he was trying his hardest. I pulled back the sheets and found multiple hairs. The bolt on the door wouldn't lock so I had to push a heavy dresser in front of the door and just hope for the best. My cousins are the ones who made the reservation, clearly before reading the Yelp reviews about how most of the doors don't lock in the place! I slept fully dressed, on top of the sheets (which I had wiped the hairs off of), fully dressed, too scared to shower alone in the filthy tub which had stains and crud build up, dresser in front of the door, and scared for my life, safety and well-being. It wasn't until after I showered the next day in my socks that the roaches starting coming out of shower drain.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r550220380-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -453,6 +651,57 @@
     <t>No view just a loud train. No queen. It's a full. Paint and latex in shower. No dishes. Bad wifi. Nikki was very nice and helpful. Never got my 5% back for how dirty the room was. Breakfast was a joke with no coffee or hot water. Bed sheets are horrible and pillows suck. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r542859144-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542859144</t>
+  </si>
+  <si>
+    <t>11/23/2017</t>
+  </si>
+  <si>
+    <t>Roaches and filth and am still getting the run around.</t>
+  </si>
+  <si>
+    <t>Rediculous. Worst hotel experience I’ve ever had. Roaches, spiders, no tp, mold in the shower, smelled like a kennel and there was dog food on the floor. That was just in the the first room. Was told to call a 1800 number. I have made multiple calls but they are never able to assist me because that department is not in.. I wish I could drive to the corporate office and shake someone. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded November 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2017</t>
+  </si>
+  <si>
+    <t>Rediculous. Worst hotel experience I’ve ever had. Roaches, spiders, no tp, mold in the shower, smelled like a kennel and there was dog food on the floor. That was just in the the first room. Was told to call a 1800 number. I have made multiple calls but they are never able to assist me because that department is not in.. I wish I could drive to the corporate office and shake someone. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r540836873-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540836873</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>NOT CLEAN</t>
+  </si>
+  <si>
+    <t>The bathroom was not clean, and bedroom was partially clean, I requested another room and it was a little cleaner so I stayed but I will definitely pay $100 for a piece of mind the only good thing about the hotel is the location. The customer service  at night is non existent Never again Extended Stay SorryMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>The bathroom was not clean, and bedroom was partially clean, I requested another room and it was a little cleaner so I stayed but I will definitely pay $100 for a piece of mind the only good thing about the hotel is the location. The customer service  at night is non existent Never again Extended Stay SorryMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r538987022-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -468,9 +717,6 @@
     <t>Poor management, high employee turnover, manager does not address issues and concerns nor respond to emails, you share a room with roaches and lizards, no ice machine, housekeeping is hit and miss, office door is almost always locked. There were several other guest whom had issues as well as I heard comments and talked to some of them. TOO MANY things to mention here. DON'T STAY HEREMoreShow less</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded November 7, 2017</t>
   </si>
   <si>
@@ -528,6 +774,54 @@
     <t>The staff here has been great.. The asst mgr Sheena make you wanna extend your stay.. Her bright smile and southern hospitality gives the place that bed n breakfast feel.. the rooms are cozy and  very clean. I would definitely recommend this location.. i will definitely be backMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r533179439-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533179439</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>front desk person rude..</t>
+  </si>
+  <si>
+    <t>Front person in the morning Rude. first words out of her mouth as i am explaining to her My room was Prepaidwhere come Down! did not let me speak then asked me why i did not say so when I tried to explain it to her Again. I told her you did not let menight manager was courteous.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Front person in the morning Rude. first words out of her mouth as i am explaining to her My room was Prepaidwhere come Down! did not let me speak then asked me why i did not say so when I tried to explain it to her Again. I told her you did not let menight manager was courteous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r533020730-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533020730</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t>NOT GOOD AT ALL {NEEDS A CLEANING}</t>
+  </si>
+  <si>
+    <t>This location is far from the best as far as cleanliness is concerned and the management seems to be ok with the condition I would drive further or pay more to not have to stay here. Better bring sanitizer and bug spray along if you do opt. to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded October 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2017</t>
+  </si>
+  <si>
+    <t>This location is far from the best as far as cleanliness is concerned and the management seems to be ok with the condition I would drive further or pay more to not have to stay here. Better bring sanitizer and bug spray along if you do opt. to stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r531582620-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -570,9 +864,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded August 31, 2017</t>
   </si>
   <si>
@@ -609,6 +900,54 @@
     <t>I have stayed probably months in extended stays over the last few years with Central Transport. So I booked a reservation and then went to cancel it before the 6pm deadline. When I called the reservation line to cancel I spent over 3 hours on the phone trying to first cancel the reservation then to be sure I wasn't going to be charged. I spoke with a supervisor at the reservation line who told me he would make sure I was not charged and he also told me ERIC the manger from the hotel would call me and just confirm it was all taken care of. I received a call from Eric and he said it was cancelled and I would not be charged. After reviewing my credit card statement a few weeks later I see a 1 day room charge on it. So I called in to get the charge removed and spent another hour on the phone with the manager Eric whom told me "I don't remember ever talking to you about this. I never called you" and the guest services manager at corporate (SHELBY) whom said "I don't know what you want! What do you want from me?" She was very unprofessional and rude and explained she did not have a boss for me to speak to. Knowing what guest services is supposed to be like from experience with the Sheraton this is unreal. I will never...I have stayed probably months in extended stays over the last few years with Central Transport. So I booked a reservation and then went to cancel it before the 6pm deadline. When I called the reservation line to cancel I spent over 3 hours on the phone trying to first cancel the reservation then to be sure I wasn't going to be charged. I spoke with a supervisor at the reservation line who told me he would make sure I was not charged and he also told me ERIC the manger from the hotel would call me and just confirm it was all taken care of. I received a call from Eric and he said it was cancelled and I would not be charged. After reviewing my credit card statement a few weeks later I see a 1 day room charge on it. So I called in to get the charge removed and spent another hour on the phone with the manager Eric whom told me "I don't remember ever talking to you about this. I never called you" and the guest services manager at corporate (SHELBY) whom said "I don't know what you want! What do you want from me?" She was very unprofessional and rude and explained she did not have a boss for me to speak to. Knowing what guest services is supposed to be like from experience with the Sheraton this is unreal. I will never use extended stay again after all this hassle to get a 60 dollar charge off my card! 60 dollars! You lost a great customer whom would book months with you guys over 60 dollars! Tip for corporate get employees who actually want to offer customer service and not just collect a paycheck every week!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r504778968-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504778968</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>This was a awful experience at this extended stay America the room had dead roaches all over the bed and the floor</t>
+  </si>
+  <si>
+    <t>I will never recommend no one to stay here for anything in the world. This was the worst experience ever and the staff is always to busy to do anything to help. It's sad and very unpleasant and unprofessional MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>I will never recommend no one to stay here for anything in the world. This was the worst experience ever and the staff is always to busy to do anything to help. It's sad and very unpleasant and unprofessional More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r508611483-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508611483</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>My July visit to Houston</t>
+  </si>
+  <si>
+    <t>My first impression was great location and the well designed facilities. The rooms were large and clean and the staff very helpful and friendly. Staff followed with me on my second day to insure I was happy and satisfied.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2017</t>
+  </si>
+  <si>
+    <t>My first impression was great location and the well designed facilities. The rooms were large and clean and the staff very helpful and friendly. Staff followed with me on my second day to insure I was happy and satisfied.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r498373427-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -684,6 +1023,57 @@
     <t>Room was clean and had all essentials. Staff was friendly, Hotel is located close to shopping,and hospital,My Next door neighbors were friendly, The Area is quiet,They have police that patrol the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r491269298-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491269298</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>for the price, not bad at all.</t>
+  </si>
+  <si>
+    <t>Based on my visit, It wasn't perfectly clean but really good overall and had all essentials. Everything worked, peaceful and close to where I had to go and local food places and for a low rate at last minute, worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Based on my visit, It wasn't perfectly clean but really good overall and had all essentials. Everything worked, peaceful and close to where I had to go and local food places and for a low rate at last minute, worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r388488732-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388488732</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Not fit for humans!</t>
+  </si>
+  <si>
+    <t>This hotel is filthy! It is disgusting and you should shut the doors! My brother q a reservation for my sister and brother(who have a pet). This was the only pet friendly property in the area. They would have been better with a tent in the park and a port-a-potty! I am requesting a full refund for both the pet fee and the room. We have pictures of how filthy it is.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is filthy! It is disgusting and you should shut the doors! My brother q a reservation for my sister and brother(who have a pet). This was the only pet friendly property in the area. They would have been better with a tent in the park and a port-a-potty! I am requesting a full refund for both the pet fee and the room. We have pictures of how filthy it is.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r384470407-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -733,6 +1123,45 @@
   </si>
   <si>
     <t>We were told that these people gave discounts for cancer patients! This place is filthy!!!! We arrived around 10 p.m. after a long day of driving and a hospital procedure. The exterior of the 3rd building had disgusting litter (rotted milk on the stairway, tobacco stuck in it, and random trash. There were people outside drinking and hanging out. The first room they assigned us smelled BAD and was a single...we needed a double so they assigned us another room. This room smelled better since there was an air freshener in the room. The outside mat was really useless because it looked like it hadn't been cleaned in months. There was litter scattered about on the outside as well. The lights did not work except for the kitchen area and bathroom. The carpets had holes and were sticky. There were only sheets on the bed so we called front desk and she gave us comforters. You could hear people walking about for much of the night and at 4 a.m. there was some type of altercation outside our door! The nightstand was filthy and the cabinets laminate was peeling from the bottom. NOT WORTH $100...MORE LIKE $50...SEEDY PLACE! PAY THE EXTRA MONEY AND STAY ELSEWHERE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r372613479-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>372613479</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Broke Down</t>
+  </si>
+  <si>
+    <t>Windows of room were open looks like somebody could had broken in at any moment. A/C unit they have only blowed at only one side of the bed so the rest of the room was a little warm. Bathroom was the worst for starters no hot water, bathroom door does not lock, somebody stoled the toilet stick that kept it on the wall, and water did not drain from the tub and sink that good. Its a good place just to stay the night and leave the next day. What i think is the most unsafe the door lock pad is open looks like somebody been messing with it and i dont like the idea of somebody could mess with it and maybe open it at a moment notice. Wifi was also terrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Windows of room were open looks like somebody could had broken in at any moment. A/C unit they have only blowed at only one side of the bed so the rest of the room was a little warm. Bathroom was the worst for starters no hot water, bathroom door does not lock, somebody stoled the toilet stick that kept it on the wall, and water did not drain from the tub and sink that good. Its a good place just to stay the night and leave the next day. What i think is the most unsafe the door lock pad is open looks like somebody been messing with it and i dont like the idea of somebody could mess with it and maybe open it at a moment notice. Wifi was also terrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r371312295-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371312295</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Horrible experience</t>
+  </si>
+  <si>
+    <t>So I booked a room a few hours in advance and showed up around midnight only to be told that they didn't have any rooms available. My husband went and spoke to them give my bank was already charged a do had my three kids with me. They gave him the hardest time until another lady came in and all of a sudden a room was available for us. So then we go to the room and it smelled like cigarettes (I have three kids with me ) really, there wasn't any toilet paper, towels or a shower curtain in the restroom! How inconvenient is this for my family and myself! Never again will I stay at an extended stay the worse customer service and the room was terrible not any shape for a family!!! Also for the continental breakfast an apple and cereal bars? Oh wow!MoreShow less</t>
+  </si>
+  <si>
+    <t>So I booked a room a few hours in advance and showed up around midnight only to be told that they didn't have any rooms available. My husband went and spoke to them give my bank was already charged a do had my three kids with me. They gave him the hardest time until another lady came in and all of a sudden a room was available for us. So then we go to the room and it smelled like cigarettes (I have three kids with me ) really, there wasn't any toilet paper, towels or a shower curtain in the restroom! How inconvenient is this for my family and myself! Never again will I stay at an extended stay the worse customer service and the room was terrible not any shape for a family!!! Also for the continental breakfast an apple and cereal bars? Oh wow!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r369047162-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
@@ -810,6 +1239,42 @@
     <t>This is a terrible Extended Stay America – among the worst temporary housing hotels I have ever seen.   I did not even complete the stay even though the reservation was completely paid in advance.  The room was so physically dirty I could not even comfortably remove my shoes and socks.  There was an odor which filled my clothes and suitcase which required me to put it all into the laundry after I checked-out.  You enter the hotel room immediately from the outside (there is no exterior door leading into hallway) so all the dirt and bacteria comes into the room and hotel cleaning service is very poor.  The room was so small my suitcase had to sit on the chair and I had to close the bathroom door to use the kitchen.  There is no desk in the room so I worked at the table.   The entire hotel is poorly maintained.  The lawn sprinkler outside my room was shooting water 25 feet into the air and my neighbor told me it was broken for several weeks.  Inside the hotel room the bathroom towel hooks were broken so I had to hang my towel on the door; the kitchen florescent light flickered so badly that I could not use the light; and the Wi-Fi was inconsistent and even completely off that I had to report the problem to the front desk.  I did not feel safe coming back to the hotel...This is a terrible Extended Stay America – among the worst temporary housing hotels I have ever seen.   I did not even complete the stay even though the reservation was completely paid in advance.  The room was so physically dirty I could not even comfortably remove my shoes and socks.  There was an odor which filled my clothes and suitcase which required me to put it all into the laundry after I checked-out.  You enter the hotel room immediately from the outside (there is no exterior door leading into hallway) so all the dirt and bacteria comes into the room and hotel cleaning service is very poor.  The room was so small my suitcase had to sit on the chair and I had to close the bathroom door to use the kitchen.  There is no desk in the room so I worked at the table.   The entire hotel is poorly maintained.  The lawn sprinkler outside my room was shooting water 25 feet into the air and my neighbor told me it was broken for several weeks.  Inside the hotel room the bathroom towel hooks were broken so I had to hang my towel on the door; the kitchen florescent light flickered so badly that I could not use the light; and the Wi-Fi was inconsistent and even completely off that I had to report the problem to the front desk.  I did not feel safe coming back to the hotel at night with smokers and drug users hanging out in the stairwell.  My final conclusion is that the management needs to be sacked because this hotel is a complete operational and design disaster.  Take my advice – even if it is a low price and seems like a good deal – avoid staying at this hotel and save yourself the frustration.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r322543148-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322543148</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>NOPE!!</t>
+  </si>
+  <si>
+    <t>HORRID!!! And that's putting it lightly. Everything is nasty from the stain (God knows what) on carpet to the roaches. Found 2 roaches both nights we stayed here. If money weren't so tight I would have gladly sacrificed another part of our vacation to pay to stay some where else. Didn't have much choice but to rough it. -Beds old and squeeqy, very hard. -Pillows are pancakes-Floor has what I am assuming is a vomit stain-Found shot glasses in the room on the floor and hair on the toilet. -Tile in bathtub us black and mouldy and falling off.-Refrigerator is rusty and leaking water?? Onto the floor.-Handle for cabinetry is missing Some "creative" photography was used when taking pictures of these rooms - photos are very deceiving !! STAY AWAY!! If you're smart enough to be looking here for reviews, you should be smart enough to see that the "manager" keeps replying and blowing smoke up everyone's - you know what's - saying they are fixing things etc.  Clearly from the repetitive nature of the reviews that is all a load of Texas bull $H!T, and nothings changed.  I feel tricked and wronged - quit stealing people's hard earned vacation money you thief!! DON'T STAY HERE! ! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>HORRID!!! And that's putting it lightly. Everything is nasty from the stain (God knows what) on carpet to the roaches. Found 2 roaches both nights we stayed here. If money weren't so tight I would have gladly sacrificed another part of our vacation to pay to stay some where else. Didn't have much choice but to rough it. -Beds old and squeeqy, very hard. -Pillows are pancakes-Floor has what I am assuming is a vomit stain-Found shot glasses in the room on the floor and hair on the toilet. -Tile in bathtub us black and mouldy and falling off.-Refrigerator is rusty and leaking water?? Onto the floor.-Handle for cabinetry is missing Some "creative" photography was used when taking pictures of these rooms - photos are very deceiving !! STAY AWAY!! If you're smart enough to be looking here for reviews, you should be smart enough to see that the "manager" keeps replying and blowing smoke up everyone's - you know what's - saying they are fixing things etc.  Clearly from the repetitive nature of the reviews that is all a load of Texas bull $H!T, and nothings changed.  I feel tricked and wronged - quit stealing people's hard earned vacation money you thief!! DON'T STAY HERE! ! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r291538128-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291538128</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>This place needs to be check awful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First off the room smells really awful I was laying in the bed a roach crawled on me I felt uncomfortable to even lay down anymore a waste of 120 dollars thinking it would have been a nice place then I went to use the restroom there was huge roach just on the counter top by the towels and baby ones running around I had to put my stuff in the car because I didn't want my bag and clothes to be infested with them this was a awful choice to pick to stay wouldn't recommend it to anyone </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r276217236-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -880,6 +1345,63 @@
   </si>
   <si>
     <t>I'm stuck here from Sunday to Thursday, thank God tomorrow is checkout day! The front desk staff is friendly. That's it! My room is small &amp; in desperate need of updating &amp; just has a "dirty" feel to it! The bed is sunken in the center &amp; uncomfortable! A strange man was knocking on several doors Monday night. The walls are thin so you hear everything! The paint is peeling off the wall. The lamp shades are stained. The carpet is disgusting &amp; needs to be replaced (don't wear white socks!) The TV stand is broken so you have to sit on the floor to see the screen comfortably. The phone doesn't work! The wi-fi was down for most of our stay. The kitchen is NOT equipped! You have to ask for everything from the front desk &amp; it's hit or miss whether they'll have it. The first coffee pot was cracked all along the bottom, so I had coffee all over the floor. The refrigerator makes a very loud humming noise! Now for the bathroom: I'm afraid to use it, but I'm working 10 hour days &amp; sweating! I don't keep anything in it &amp; I keep the door closed! Bugs have come up from the sink drain. The shower is a joke! There is BLACK MOLD all over the tiles &amp; I've taken lots of pictures! The shower makes an awful "kill me now" noise. The shower head...I'm stuck here from Sunday to Thursday, thank God tomorrow is checkout day! The front desk staff is friendly. That's it! My room is small &amp; in desperate need of updating &amp; just has a "dirty" feel to it! The bed is sunken in the center &amp; uncomfortable! A strange man was knocking on several doors Monday night. The walls are thin so you hear everything! The paint is peeling off the wall. The lamp shades are stained. The carpet is disgusting &amp; needs to be replaced (don't wear white socks!) The TV stand is broken so you have to sit on the floor to see the screen comfortably. The phone doesn't work! The wi-fi was down for most of our stay. The kitchen is NOT equipped! You have to ask for everything from the front desk &amp; it's hit or miss whether they'll have it. The first coffee pot was cracked all along the bottom, so I had coffee all over the floor. The refrigerator makes a very loud humming noise! Now for the bathroom: I'm afraid to use it, but I'm working 10 hour days &amp; sweating! I don't keep anything in it &amp; I keep the door closed! Bugs have come up from the sink drain. The shower is a joke! There is BLACK MOLD all over the tiles &amp; I've taken lots of pictures! The shower makes an awful "kill me now" noise. The shower head only points straight down. All week, the water is luke warm at best; tonight it's just freezing cold, so now shower for me! After busting my butt all day today;  I have to do it again tomorrow &amp; then travel all night with no shower tonight! Steaming hot water in the kitchen, freezing cold water in the shower! I am extremely frustrated that I'll have to wash up in the kitchen sink tonight just to refresh a bit, but I absolutely cannot get past the black mold all over the shower tiles! I read reviews back to August of last year, the manager keeps replying saying they're sorry &amp; will look into it, but it seems nothing is being done to change the problems! I'm not the first (or even second) person to report having MOLD in their room! Does management not understand how dangerous mold is? I guarantee I'll be seeing my doctor as soon as I get home - being I'm allergic to pollen, dust &amp; mold! I am only still here because my company has sent me here for work &amp; they are paying through CLC for this room! I have sent two of my bosses my list of complaints about this room &amp; several pictures of the mold! They will most certainly be reporting this to CLC (not that it matters because I will be contacting them directly myself) and having this hotel removed from the list of "acceptable" hotels! When I come back next week with my two co-workers, my bosses assure me we will be staying at a different hotel!!! I've only experienced Extended Stay once before (St. Louis) and it was a beautiful hotel &amp; room! I was actually excited when I saw work booked us at another ESA! I will NEVER stay in a room with this chain again ... On my dime or anyone else's!! This place is a DUMP at best &amp; should be closed down immediately &amp; permanently!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r256963692-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256963692</t>
+  </si>
+  <si>
+    <t>02/28/2015</t>
+  </si>
+  <si>
+    <t>Stinky</t>
+  </si>
+  <si>
+    <t>I had to stay at this hotel for 19 nights, because my company did not wanted to pay a better place. This hotel is very cheap and therefore, the place gave you waht you pay: cleaning service one day a week; grab-to-go breakfast: coffe, muffins, granola bars, oranges and apples: every single day the same stuff, even on weekends; noisy rooms (hotel is located on Hwy. 249, behind Cindie's and very close to splendor adult entertainment); whole families living in a single room with a variety of smells: food, dirty clothes, farts, etc.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r248381489-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>248381489</t>
+  </si>
+  <si>
+    <t>01/08/2015</t>
+  </si>
+  <si>
+    <t>Good option if you are planning for a fortnight or more stay!</t>
+  </si>
+  <si>
+    <t>I stayed here for a fortnight around the end of Nov 2014 till the middle of December. 
+Overall it was a satisfactory stay. I opted for the same as it was close to the place where my colleagues stay and also it was close to the Willowbrook Mall and eateries (Pappadeux, Pappasito’s Cantina, P.F. Chang’s China Bistro, Whataburger etc). Best Buy, Target Walmart all within walking distance. But in case you are planning to go UpTown this would take around 2 hours on weekdays. 
+My room was right at the back but it was never any problem. The room I was given was cozy for one person. For a couple this can be definitely crampy. 
+The kitchen was very small and the gas stove is placed vertically which was difficult to handle sometimes. I had the cuttlery available in the cabinets with a working Microwave. The fridge was in perfectly working condition. 
+Most important I had a good night's sleep because the bed was comfortable and surely no bugs.
+The staff at the front desk was always very friendly and helpful. The moment I entered my room there was a distinct odour which did put me back. After a quick complaint within 30 mins they came over to spray which at least reduced the effect.
+Breakfast was Grab-and-Go with 2 varieties of muffin, 3 varieties of Granola Bars, 3 varieties of oatmeal, 2 kinds of fruits, 2 types of coffee,...I stayed here for a fortnight around the end of Nov 2014 till the middle of December. Overall it was a satisfactory stay. I opted for the same as it was close to the place where my colleagues stay and also it was close to the Willowbrook Mall and eateries (Pappadeux, Pappasito’s Cantina, P.F. Chang’s China Bistro, Whataburger etc). Best Buy, Target Walmart all within walking distance. But in case you are planning to go UpTown this would take around 2 hours on weekdays. My room was right at the back but it was never any problem. The room I was given was cozy for one person. For a couple this can be definitely crampy. The kitchen was very small and the gas stove is placed vertically which was difficult to handle sometimes. I had the cuttlery available in the cabinets with a working Microwave. The fridge was in perfectly working condition. Most important I had a good night's sleep because the bed was comfortable and surely no bugs.The staff at the front desk was always very friendly and helpful. The moment I entered my room there was a distinct odour which did put me back. After a quick complaint within 30 mins they came over to spray which at least reduced the effect.Breakfast was Grab-and-Go with 2 varieties of muffin, 3 varieties of Granola Bars, 3 varieties of oatmeal, 2 kinds of fruits, 2 types of coffee, tea.Internet speed was also pretty fast. A/C and heater was always in working condition.The housekeeping was also very accomodating. They changed their timings because of me and was pretty cool about that.Overall this was a satisfactory stay and is recommended to all. But definite measures can be taken by the staff as I found that the feedback from the users are mixed. I myself believe that cleaniless is one clear issue which can be handled.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded January 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for a fortnight around the end of Nov 2014 till the middle of December. 
+Overall it was a satisfactory stay. I opted for the same as it was close to the place where my colleagues stay and also it was close to the Willowbrook Mall and eateries (Pappadeux, Pappasito’s Cantina, P.F. Chang’s China Bistro, Whataburger etc). Best Buy, Target Walmart all within walking distance. But in case you are planning to go UpTown this would take around 2 hours on weekdays. 
+My room was right at the back but it was never any problem. The room I was given was cozy for one person. For a couple this can be definitely crampy. 
+The kitchen was very small and the gas stove is placed vertically which was difficult to handle sometimes. I had the cuttlery available in the cabinets with a working Microwave. The fridge was in perfectly working condition. 
+Most important I had a good night's sleep because the bed was comfortable and surely no bugs.
+The staff at the front desk was always very friendly and helpful. The moment I entered my room there was a distinct odour which did put me back. After a quick complaint within 30 mins they came over to spray which at least reduced the effect.
+Breakfast was Grab-and-Go with 2 varieties of muffin, 3 varieties of Granola Bars, 3 varieties of oatmeal, 2 kinds of fruits, 2 types of coffee,...I stayed here for a fortnight around the end of Nov 2014 till the middle of December. Overall it was a satisfactory stay. I opted for the same as it was close to the place where my colleagues stay and also it was close to the Willowbrook Mall and eateries (Pappadeux, Pappasito’s Cantina, P.F. Chang’s China Bistro, Whataburger etc). Best Buy, Target Walmart all within walking distance. But in case you are planning to go UpTown this would take around 2 hours on weekdays. My room was right at the back but it was never any problem. The room I was given was cozy for one person. For a couple this can be definitely crampy. The kitchen was very small and the gas stove is placed vertically which was difficult to handle sometimes. I had the cuttlery available in the cabinets with a working Microwave. The fridge was in perfectly working condition. Most important I had a good night's sleep because the bed was comfortable and surely no bugs.The staff at the front desk was always very friendly and helpful. The moment I entered my room there was a distinct odour which did put me back. After a quick complaint within 30 mins they came over to spray which at least reduced the effect.Breakfast was Grab-and-Go with 2 varieties of muffin, 3 varieties of Granola Bars, 3 varieties of oatmeal, 2 kinds of fruits, 2 types of coffee, tea.Internet speed was also pretty fast. A/C and heater was always in working condition.The housekeeping was also very accomodating. They changed their timings because of me and was pretty cool about that.Overall this was a satisfactory stay and is recommended to all. But definite measures can be taken by the staff as I found that the feedback from the users are mixed. I myself believe that cleaniless is one clear issue which can be handled.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r244706706-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
@@ -958,6 +1480,48 @@
     <t>I stayed here for one night. The front desk attendant was rude. The outside seemed to be in good shape. I felt very safe. There was a security guard making rounds. The parking was great. I was able to pull right in front of my room.  When I opened the door to the room I was in very upset at how small the room was. It looked like a run down motel room. The television was small. There is a small kitchen but there were no utensils in the kitchen which made it useless. This was the smallest room I have ever been in. I am glad I was a solo traveler because the bed was only a full size bed. This would not be suitable for a couple or larger person. The bed was very uncomfortable. I thought about going and ask for a refund but I got a deal on hotwire.com so It was very inexpensive. I would not have paid regular price for this little box room at all. I was trying Extended Stay of for future traveling, but I will not be going to anymore of Extended Stay properties.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r237192490-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237192490</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Nice Staff, but Bug Infested and Dirty</t>
+  </si>
+  <si>
+    <t>So, my room is half remodeled! Jose has to be most well rounded employee here. Unfortunately though the shower area wasn't part of the remodel and is Molded. Also the Cabinets are coming apart. So, I wake this morning to a Flooded kitchen don't have time to move rooms seeings I check out early am Saturday morning and had to be into work. So, I ask rep at front desk have  maintenance diehard they need and just have housekeeping clean it. Yeah right!!!maintenance came no housekeeper! UGH!!! Outside of pleasant staff I won't be back! I frequent extended stays often with work! Sad usually the staff are just as bad, not in this case, not to mention a druggie next door smoking blunts inside and outside! Thank God I leave in a couple days!    MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded November 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2014</t>
+  </si>
+  <si>
+    <t>So, my room is half remodeled! Jose has to be most well rounded employee here. Unfortunately though the shower area wasn't part of the remodel and is Molded. Also the Cabinets are coming apart. So, I wake this morning to a Flooded kitchen don't have time to move rooms seeings I check out early am Saturday morning and had to be into work. So, I ask rep at front desk have  maintenance diehard they need and just have housekeeping clean it. Yeah right!!!maintenance came no housekeeper! UGH!!! Outside of pleasant staff I won't be back! I frequent extended stays often with work! Sad usually the staff are just as bad, not in this case, not to mention a druggie next door smoking blunts inside and outside! Thank God I leave in a couple days!    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r237190175-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237190175</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>I stayed here for three nights. The area is not the best, you don´t have a lot of restaurant options; and the place is hard to find, I arrived on a Sunday night and the area was desolated, every restaurant was closed. My room was basic and old, it wasn´t ready when I arrive, it didn´t have hungers or kitchen stuff (like forks, cups, etc..) so I needed to ask for everything (I was on a business trip, I really needed hungers and an iron to prepare my working clothes). Walls are very thin, I didn´t sleep well because of the noise. The shower made a very loud vibrating noise, it was annoying. No extras like shampoo or Kleenex or coffee. I was happy to leave, I´m not staying here again, you can find much better things in Houston for less money!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for three nights. The area is not the best, you don´t have a lot of restaurant options; and the place is hard to find, I arrived on a Sunday night and the area was desolated, every restaurant was closed. My room was basic and old, it wasn´t ready when I arrive, it didn´t have hungers or kitchen stuff (like forks, cups, etc..) so I needed to ask for everything (I was on a business trip, I really needed hungers and an iron to prepare my working clothes). Walls are very thin, I didn´t sleep well because of the noise. The shower made a very loud vibrating noise, it was annoying. No extras like shampoo or Kleenex or coffee. I was happy to leave, I´m not staying here again, you can find much better things in Houston for less money!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r236718136-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1030,6 +1594,47 @@
     <t>Love the decorations love how the room was set up. Did not like the bathrooms. There was mold, cracked tiles, water would run after turning it off. Other than that I loved my stay. No bugs which is a huge deal for me. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r217780938-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217780938</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Great staff!!! A lot to do in the area. Great dining, great shopping and the hotel is GREAT!! We received a great deal booking our room on Hotwire.com!!! Pleasantly pleased with the property and location. I will definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded July 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2014</t>
+  </si>
+  <si>
+    <t>Great staff!!! A lot to do in the area. Great dining, great shopping and the hotel is GREAT!! We received a great deal booking our room on Hotwire.com!!! Pleasantly pleased with the property and location. I will definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r212444977-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212444977</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t>Suspicious activity at this hotel</t>
+  </si>
+  <si>
+    <t>This is a true experience that is so strange and absurd that it just has to be told. My husband and I were relocating to Houston, Texas so he could go to school and we needed a place to stay for a couple of weeks until we could find an apartment. I saw the commercials on TV and decided we would book a room at this hotel. We had just completed a 1000 mile drive and arrived at the hotel at 1:30 pm. There was no one at the front desk. While we were waiting to be helped, my husband said “honey, look at this office, how dirty it is.” We literally saw cobwebs on the ceiling and the floor was so dirty. Around the baseboards and front door was dust and dirt that had been there for a long time. The front desk clerk appeared told us that check-in time was not until 3pm and our room was not ready and had not been cleaned and to come back at that time. We returned at 3pm and checked in to our room. 
+The corridor and mat in front of the door was very dirty and there were cigarette butts on the welcome mat. When we walked into the door there was a strong smell of smoke (I asked for a non-smoking room.) We began looking around the room and found some alarming things. The room was filthy dirty and...This is a true experience that is so strange and absurd that it just has to be told. My husband and I were relocating to Houston, Texas so he could go to school and we needed a place to stay for a couple of weeks until we could find an apartment. I saw the commercials on TV and decided we would book a room at this hotel. We had just completed a 1000 mile drive and arrived at the hotel at 1:30 pm. There was no one at the front desk. While we were waiting to be helped, my husband said “honey, look at this office, how dirty it is.” We literally saw cobwebs on the ceiling and the floor was so dirty. Around the baseboards and front door was dust and dirt that had been there for a long time. The front desk clerk appeared told us that check-in time was not until 3pm and our room was not ready and had not been cleaned and to come back at that time. We returned at 3pm and checked in to our room. The corridor and mat in front of the door was very dirty and there were cigarette butts on the welcome mat. When we walked into the door there was a strong smell of smoke (I asked for a non-smoking room.) We began looking around the room and found some alarming things. The room was filthy dirty and had a stench. The carpet was dirty and had large stained areas. We pulled back the bedspread and the sheets were rumpled, stale and dirty. There was hair on the sheets and the bed looked like it had been recently used. We went into the bathroom and it was not clean either. There was still feces in the toilet. The kitchen floor was so sticky my shoes made a sound whenever I took a step. The kitchen was so dirty. There was thick dust, grease and something had been spilled (drinks maybe?) all over the cabinets and countertop. The kitchen was so filthy I would not even feed my dog in there much less make my own meals there. I told my husband that I could not stay there and I placed a call to Extended Stay Hotels customer service department to check our options. We waited for a long time (15-20 min.) and still on hold and could not get through to a representative. While I was on hold, my husband opened a cabinet door to the kitchen and a black corset fell out onto the floor. He said, “honey come over here and look at this.) When I looked into the cabinet it was full of sexy lingerie and costumes. There was also a large metal lock box as well as a large wooden box. I told my husband, “Don’t touch anything and do not open those boxes. There could be anything in there (sex toys, money, drugs) and I did not want our fingerprints on anything else in the room. My husband said he was going out to get the manager. The manager’s name was Josie. She walked into the room and saw the contents of the cabinet and black corset on the floor.  She had no expression on her face and did not seem surprised. She told us that she was very sorry and would give us a full refund plus an extra night for our trouble. She also told us that we would have to leave and find another hotel because they had no other rooms available. I said to her that it looks like something is going on here and she should check into it. She said, “Yes, I will talk to my night staff.”  We went back to the office and she promptly processed our refund but said she could not get the computer to credit the extra night to our account. We left and it would take a lot for me to ever trust Extended Stay America Hotels enough to book a reservation with them again. By the way, in case anyone is wondering….yes, we took pictures.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a true experience that is so strange and absurd that it just has to be told. My husband and I were relocating to Houston, Texas so he could go to school and we needed a place to stay for a couple of weeks until we could find an apartment. I saw the commercials on TV and decided we would book a room at this hotel. We had just completed a 1000 mile drive and arrived at the hotel at 1:30 pm. There was no one at the front desk. While we were waiting to be helped, my husband said “honey, look at this office, how dirty it is.” We literally saw cobwebs on the ceiling and the floor was so dirty. Around the baseboards and front door was dust and dirt that had been there for a long time. The front desk clerk appeared told us that check-in time was not until 3pm and our room was not ready and had not been cleaned and to come back at that time. We returned at 3pm and checked in to our room. 
+The corridor and mat in front of the door was very dirty and there were cigarette butts on the welcome mat. When we walked into the door there was a strong smell of smoke (I asked for a non-smoking room.) We began looking around the room and found some alarming things. The room was filthy dirty and...This is a true experience that is so strange and absurd that it just has to be told. My husband and I were relocating to Houston, Texas so he could go to school and we needed a place to stay for a couple of weeks until we could find an apartment. I saw the commercials on TV and decided we would book a room at this hotel. We had just completed a 1000 mile drive and arrived at the hotel at 1:30 pm. There was no one at the front desk. While we were waiting to be helped, my husband said “honey, look at this office, how dirty it is.” We literally saw cobwebs on the ceiling and the floor was so dirty. Around the baseboards and front door was dust and dirt that had been there for a long time. The front desk clerk appeared told us that check-in time was not until 3pm and our room was not ready and had not been cleaned and to come back at that time. We returned at 3pm and checked in to our room. The corridor and mat in front of the door was very dirty and there were cigarette butts on the welcome mat. When we walked into the door there was a strong smell of smoke (I asked for a non-smoking room.) We began looking around the room and found some alarming things. The room was filthy dirty and had a stench. The carpet was dirty and had large stained areas. We pulled back the bedspread and the sheets were rumpled, stale and dirty. There was hair on the sheets and the bed looked like it had been recently used. We went into the bathroom and it was not clean either. There was still feces in the toilet. The kitchen floor was so sticky my shoes made a sound whenever I took a step. The kitchen was so dirty. There was thick dust, grease and something had been spilled (drinks maybe?) all over the cabinets and countertop. The kitchen was so filthy I would not even feed my dog in there much less make my own meals there. I told my husband that I could not stay there and I placed a call to Extended Stay Hotels customer service department to check our options. We waited for a long time (15-20 min.) and still on hold and could not get through to a representative. While I was on hold, my husband opened a cabinet door to the kitchen and a black corset fell out onto the floor. He said, “honey come over here and look at this.) When I looked into the cabinet it was full of sexy lingerie and costumes. There was also a large metal lock box as well as a large wooden box. I told my husband, “Don’t touch anything and do not open those boxes. There could be anything in there (sex toys, money, drugs) and I did not want our fingerprints on anything else in the room. My husband said he was going out to get the manager. The manager’s name was Josie. She walked into the room and saw the contents of the cabinet and black corset on the floor.  She had no expression on her face and did not seem surprised. She told us that she was very sorry and would give us a full refund plus an extra night for our trouble. She also told us that we would have to leave and find another hotel because they had no other rooms available. I said to her that it looks like something is going on here and she should check into it. She said, “Yes, I will talk to my night staff.”  We went back to the office and she promptly processed our refund but said she could not get the computer to credit the extra night to our account. We left and it would take a lot for me to ever trust Extended Stay America Hotels enough to book a reservation with them again. By the way, in case anyone is wondering….yes, we took pictures.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r204217124-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1102,6 +1707,57 @@
     <t>The manager was simply rude to the customers as well as the employees. When i first checked in my room had a leak under the sink and the mildew smell was all arond the room. I went back to the front desk and a young woman told me she had no other rooms to put me in, and i would have to wait until morning when people checked out. It was a horrible first night, but they changed the room in the morning. I walked in and said goodmorning to the manager and she said nothing back and walked away. She came back and gave me a new room. I felt unwelcome. Following these events my room was cleaned twice during my entire stay. I stayed there for one month on business and this one guy working in the office went above and beyond for me during my stay was the only person who made me feel espespecially welcome and I heard that the manager fired him for some odd reason and rumors circulated right before I left that she allegedly told an employee that there were too many black people working there and he had to go because he was a man as well. I will never stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r199064862-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199064862</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Whoa be the Poor Unsuspecting Traveler...</t>
+  </si>
+  <si>
+    <t>Recently stayed at this hotel for more than three months, during which time they cleaned my room only upon request. This was not part of the agreement, the agreement said that they would clean my room every week. Not true. The last four weeks of my trip my phone did not work and they raised my rate by $10 a day. When I complained I got the usual two step, it is corporate, no it is up to the local property. The last four weeks no one cleaned my room either. Finally when I paid for the week ahead of time they promised me a rebate on the five days that I did not use. To date three weeks after checking out no rebate, surprise, surprise, surprise. Again that is up to corporate, corporate says it is up to the local hotel. Final indignity was that I found several cockroaches that I killed and flushed. Ultimately a horrible place but since I was on 90 reservation I was locked in. Take my advice and pay a few dollars more and stay somewhere else. The pits.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded April 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2014</t>
+  </si>
+  <si>
+    <t>Recently stayed at this hotel for more than three months, during which time they cleaned my room only upon request. This was not part of the agreement, the agreement said that they would clean my room every week. Not true. The last four weeks of my trip my phone did not work and they raised my rate by $10 a day. When I complained I got the usual two step, it is corporate, no it is up to the local property. The last four weeks no one cleaned my room either. Finally when I paid for the week ahead of time they promised me a rebate on the five days that I did not use. To date three weeks after checking out no rebate, surprise, surprise, surprise. Again that is up to corporate, corporate says it is up to the local hotel. Final indignity was that I found several cockroaches that I killed and flushed. Ultimately a horrible place but since I was on 90 reservation I was locked in. Take my advice and pay a few dollars more and stay somewhere else. The pits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r194543092-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194543092</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>We paid for 2 nights, stayed for 1 due to Cockroaches.</t>
+  </si>
+  <si>
+    <t>The check in was fast and easy. The check in staff was very nice and friendly considering we checked in around 11pm (after hrs and we had to call the number indicated on the door to get someone to come and open the front office door to check us in). First impression of the room was nice and clean (or so we thought). There are no shampoo/toothbrush/soap... lucky for us we brought our own... after a staying for 2 hrs we saw a lot of small cockroaches roaming the kitchen floor as well as the sink area. It was too late to get other room so we ended up checking out the next day after our business meeting. This was a disappointment bc I was excited about this stay and thought it would be "homie" but the cockroaches problem ruined our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded February 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2014</t>
+  </si>
+  <si>
+    <t>The check in was fast and easy. The check in staff was very nice and friendly considering we checked in around 11pm (after hrs and we had to call the number indicated on the door to get someone to come and open the front office door to check us in). First impression of the room was nice and clean (or so we thought). There are no shampoo/toothbrush/soap... lucky for us we brought our own... after a staying for 2 hrs we saw a lot of small cockroaches roaming the kitchen floor as well as the sink area. It was too late to get other room so we ended up checking out the next day after our business meeting. This was a disappointment bc I was excited about this stay and thought it would be "homie" but the cockroaches problem ruined our stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r191422796-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1166,6 +1822,42 @@
   </si>
   <si>
     <t>The room was dirty and appeared to have mold growing in it.  The bathroom lighting was very poor and the water pressure in the shower horrible.  The bed and pillows were uncomfortable.  The room was supposed to be a queen suite, but the bed felt more like a full than a queen.  The room was tiny, not sufficient room for 2 people.  It was also noisy in the room, there was popping and settling noises coming from the kitchen area.  I turned the TV on for white noise to drown out the noises, but the TV turned itself off in the middle of the night, which woke me up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r169952260-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169952260</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>This hotel was a great value!</t>
+  </si>
+  <si>
+    <t>We stayed 3 months at this hotel.  I have a lot of good things to say about it.   We travel 9 months a year so I have a lot to compare this to.  The room itself is set up perfectly!... Plenty of storage and room space.  Huge shelf in the bathroom and 5 or 6 shelves in the kitchen area, really helps for an extended stay!The furniture was very nice especially for the price of this hotel.  The grounds were beautiful and well kept. The Wifi WAS THE BEST I have ever experienced at an Extended Stay America (usually worse than dial up)..The only thing not perfect was the service.  But personally that is low on importance for me because I would rather clean my own room and wash my own towels/sheets.  Which we did do here.  The laundry room was great compared to other extended stays as well.  Plenty of washers and dryers and all worked properly! You would be surprised at some I've had to deal with... The room had a very nice comfortable feel to it because the room was painted in 2 nice warm colors and the furniture was extremely nice and well taken care of! MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed 3 months at this hotel.  I have a lot of good things to say about it.   We travel 9 months a year so I have a lot to compare this to.  The room itself is set up perfectly!... Plenty of storage and room space.  Huge shelf in the bathroom and 5 or 6 shelves in the kitchen area, really helps for an extended stay!The furniture was very nice especially for the price of this hotel.  The grounds were beautiful and well kept. The Wifi WAS THE BEST I have ever experienced at an Extended Stay America (usually worse than dial up)..The only thing not perfect was the service.  But personally that is low on importance for me because I would rather clean my own room and wash my own towels/sheets.  Which we did do here.  The laundry room was great compared to other extended stays as well.  Plenty of washers and dryers and all worked properly! You would be surprised at some I've had to deal with... The room had a very nice comfortable feel to it because the room was painted in 2 nice warm colors and the furniture was extremely nice and well taken care of! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r169227297-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169227297</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>WILL NEVER STAY HERE AGAIN</t>
+  </si>
+  <si>
+    <t>Upon arriving for my husband and I's THREE month stay, we had issues right off the bat. We checked in at the end of May and are sadly staying until the end of August. We have been here for over 2 months now and our introduction to the service started just how it I'm sure will end... HORRIBLE. The gals who work up front act as if they could care less about anyone who stays there. Not only are they rude but we constantly had/have to ask for the same thing OVER and over again. (That we shouldn't have had to ask for in the first) Appliances, linen, and our room getting cleaned (we went 2 weeks with no room service and had to call the coroprate office for it to finally happen) and water... The water for guests went completly out. We had multiple times where we couldn't get in our room, which I understand happens... But they did nothing to fix it as it continued to be an issue. Not only would the keys not work but our door wouldn't! The rooms look nothing like presented online and are really small for the price. When booking our stay, we were informed our kitchen would be "fully loaded"... Hardly! Everything about our stay was and is completely disappointing and as we and our families travel a lot we will make it a point to never stay at an Extended...Upon arriving for my husband and I's THREE month stay, we had issues right off the bat. We checked in at the end of May and are sadly staying until the end of August. We have been here for over 2 months now and our introduction to the service started just how it I'm sure will end... HORRIBLE. The gals who work up front act as if they could care less about anyone who stays there. Not only are they rude but we constantly had/have to ask for the same thing OVER and over again. (That we shouldn't have had to ask for in the first) Appliances, linen, and our room getting cleaned (we went 2 weeks with no room service and had to call the coroprate office for it to finally happen) and water... The water for guests went completly out. We had multiple times where we couldn't get in our room, which I understand happens... But they did nothing to fix it as it continued to be an issue. Not only would the keys not work but our door wouldn't! The rooms look nothing like presented online and are really small for the price. When booking our stay, we were informed our kitchen would be "fully loaded"... Hardly! Everything about our stay was and is completely disappointing and as we and our families travel a lot we will make it a point to never stay at an Extended Stay America (especially on Champions Centre in Houston) again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon arriving for my husband and I's THREE month stay, we had issues right off the bat. We checked in at the end of May and are sadly staying until the end of August. We have been here for over 2 months now and our introduction to the service started just how it I'm sure will end... HORRIBLE. The gals who work up front act as if they could care less about anyone who stays there. Not only are they rude but we constantly had/have to ask for the same thing OVER and over again. (That we shouldn't have had to ask for in the first) Appliances, linen, and our room getting cleaned (we went 2 weeks with no room service and had to call the coroprate office for it to finally happen) and water... The water for guests went completly out. We had multiple times where we couldn't get in our room, which I understand happens... But they did nothing to fix it as it continued to be an issue. Not only would the keys not work but our door wouldn't! The rooms look nothing like presented online and are really small for the price. When booking our stay, we were informed our kitchen would be "fully loaded"... Hardly! Everything about our stay was and is completely disappointing and as we and our families travel a lot we will make it a point to never stay at an Extended...Upon arriving for my husband and I's THREE month stay, we had issues right off the bat. We checked in at the end of May and are sadly staying until the end of August. We have been here for over 2 months now and our introduction to the service started just how it I'm sure will end... HORRIBLE. The gals who work up front act as if they could care less about anyone who stays there. Not only are they rude but we constantly had/have to ask for the same thing OVER and over again. (That we shouldn't have had to ask for in the first) Appliances, linen, and our room getting cleaned (we went 2 weeks with no room service and had to call the coroprate office for it to finally happen) and water... The water for guests went completly out. We had multiple times where we couldn't get in our room, which I understand happens... But they did nothing to fix it as it continued to be an issue. Not only would the keys not work but our door wouldn't! The rooms look nothing like presented online and are really small for the price. When booking our stay, we were informed our kitchen would be "fully loaded"... Hardly! Everything about our stay was and is completely disappointing and as we and our families travel a lot we will make it a point to never stay at an Extended Stay America (especially on Champions Centre in Houston) again. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r165455630-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
@@ -1237,6 +1929,51 @@
     <t>Hotel did not honor my 'Extended Stay America' coupon discounts which I was relying on.   The bill from my room cost twice what I was quoted via the 1-800 reservation number which I had called the day before.   This is major error which I cannot afford, and am stuck to struggle through.  Also, I had booked this room via the Extended STay america 1-800 reservation number, I had requested a handicap and 'quiet' room, neither of which I recieved.  Upon check in, I was given a room that I was not able to navigate and was not safe for me.   And it was directly in the middle of heavy foot traffic and 24 hour/ a day noise :S    Yuck!Otherwise, the ladies at the front desk are amazing, sweet, and try to accomidate as best they can.  The hotel is in a residential neighborhood area, with lots of tree's, shopping, great places to eat, and just overall 'fun' place.    There have been several car break in's since I've been here, so far in one week I think 3 cars have been broken into.  If you stay here, just be careful, be safe, and talk with the long term hotel guests to navigate and be safe and get what you need.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r159091186-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159091186</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>love it!!!!!</t>
+  </si>
+  <si>
+    <t>its such a clean and nice hotel. It feels like home, pillows are like feather soft!!! ZZZZZzzzzzz slept like a baby staying here! front desk is awsome, Evelyn and Jocelyn and especially the Manager (forgot his name) but he is great!!! everyone is sweet from housekeepers to front desk. Well kept, clean all the time! If you need anything TRUST ME they WILL help you!!!</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r156740275-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156740275</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>Roach Haven</t>
+  </si>
+  <si>
+    <t>After checking in and moving rooms 3 times within 2 days, they finally found a room for me....that had broken appliances, leaking refrigerator and roaches...oh yes roaches..try reaching into the utensil drawer and having your hand covered in roaches...all sizes crawling all over you, your knives, forks and spoons....Thought I was in a bad horror movie. Told the manager and she assured me that a few roaches were "common" for that time of year and because it had rained...mmmm no thanks.....for $1500 a  month I would rather live out of my car next to the homeless person. Trash outside piled up for days, so much so that a raccoon named Ricky by the locals made his daily meal. Staff so so friendly and did not attend to room concerns, however asked if they would stay somewhere with bugs ...I go a bad look and a "ewww no" as an answer. Yet they ask their guests to do so. Hope management sees this and any other comments.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded April 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2013</t>
+  </si>
+  <si>
+    <t>After checking in and moving rooms 3 times within 2 days, they finally found a room for me....that had broken appliances, leaking refrigerator and roaches...oh yes roaches..try reaching into the utensil drawer and having your hand covered in roaches...all sizes crawling all over you, your knives, forks and spoons....Thought I was in a bad horror movie. Told the manager and she assured me that a few roaches were "common" for that time of year and because it had rained...mmmm no thanks.....for $1500 a  month I would rather live out of my car next to the homeless person. Trash outside piled up for days, so much so that a raccoon named Ricky by the locals made his daily meal. Staff so so friendly and did not attend to room concerns, however asked if they would stay somewhere with bugs ...I go a bad look and a "ewww no" as an answer. Yet they ask their guests to do so. Hope management sees this and any other comments.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r155243707-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1312,6 +2049,51 @@
     <t>I've experience new bed sheets that are very comfortable. Very clean rooms to perfection. My vacation was restful. Service was great and very nice employees. They serve breakfast that is very tasteful and you should come try.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r152580195-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152580195</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Nice!</t>
+  </si>
+  <si>
+    <t>Had to stay a few til my apartment was ready to move in. The girls were not only pretty! But, they were friendly &amp; helpful... They helped me with everything I needed! I will definitely tell my friends &amp; Family to stay here when they get to Houston! Rooms are clean, really nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded February 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2013</t>
+  </si>
+  <si>
+    <t>Had to stay a few til my apartment was ready to move in. The girls were not only pretty! But, they were friendly &amp; helpful... They helped me with everything I needed! I will definitely tell my friends &amp; Family to stay here when they get to Houston! Rooms are clean, really nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r152463639-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152463639</t>
+  </si>
+  <si>
+    <t>02/18/2013</t>
+  </si>
+  <si>
+    <t>My Seven Months w/Willowbrook ESA</t>
+  </si>
+  <si>
+    <t>I had no issues during my 7 month stay with the Extended Stay Willowbrook.  Very good staff across the board.  Always receptive, coureous and helpful.  If anyone I know ask me where to stay while visiting the Willowbrook area, I will recommend the ESA to them without a doubt.  James CorkranMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I had no issues during my 7 month stay with the Extended Stay Willowbrook.  Very good staff across the board.  Always receptive, coureous and helpful.  If anyone I know ask me where to stay while visiting the Willowbrook area, I will recommend the ESA to them without a doubt.  James CorkranMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r151982135-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1388,6 +2170,33 @@
   </si>
   <si>
     <t>I spent several weeks at this hotel. During my stay they began renovations, and I have to say the staff during this time was excellant! The rooms definately needed the update and I'm excited to come back and stay in the new rooms! Eydie's entire staff were friendly, professional, and efficient. They took the time to get to know who i was, not just a room number but by name. It never matter what time of day or night I still got the same great service. This hotel is a good location, close to houston and plenty of restaurants, shopping, and grocery stores. i loved the kitchen in the room it was very nice to be able not HAVE to eat out if i didn't want to and the fact that they supply dishes, silerware, even a skillet and pot was extemely convienent. All in all i felt I definately got my money's worth!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217744-r139689935-Extended_Stay_America_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139689935</t>
+  </si>
+  <si>
+    <t>09/07/2012</t>
+  </si>
+  <si>
+    <t>Feels like home!</t>
+  </si>
+  <si>
+    <t>I have been staying at this location for longer than I would like to say. The husband and I feel on hard times and found this place in the "nick of time"! The staff knows me by 1st name and I can not say that I have had any major problems. They have recently done some renovations to the rooms and the outside. LOVE LOVE LOVE!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Willowbrook, responded to this reviewResponded September 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2012</t>
+  </si>
+  <si>
+    <t>I have been staying at this location for longer than I would like to say. The husband and I feel on hard times and found this place in the "nick of time"! The staff knows me by 1st name and I can not say that I have had any major problems. They have recently done some renovations to the rooms and the outside. LOVE LOVE LOVE!!More</t>
   </si>
 </sst>
 </file>
@@ -1930,12 +2739,18 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1974,23 +2789,19 @@
         <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -2001,13 +2812,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -2023,7 +2834,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2032,25 +2843,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2062,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -2084,7 +2895,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2093,49 +2904,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
         <v>79</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2151,62 +2956,52 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>83</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>84</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>85</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>68</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -2222,7 +3017,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2231,25 +3026,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2261,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -2283,7 +3078,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2292,25 +3087,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2356,29 +3151,35 @@
         <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -2426,31 +3227,41 @@
         <v>118</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="O10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
         <v>119</v>
-      </c>
-      <c r="X10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -2466,62 +3277,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
         <v>122</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>123</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>124</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s">
         <v>125</v>
       </c>
-      <c r="L11" t="s">
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
         <v>126</v>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="X11" t="s">
         <v>127</v>
       </c>
-      <c r="O11" t="s">
-        <v>77</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="Y11" t="s">
         <v>128</v>
-      </c>
-      <c r="X11" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -2537,58 +3338,62 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
         <v>131</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>132</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>133</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" t="s">
         <v>134</v>
       </c>
-      <c r="L12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>136</v>
-      </c>
-      <c r="O12" t="s">
-        <v>77</v>
-      </c>
       <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
       <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" t="s">
         <v>137</v>
-      </c>
-      <c r="X12" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13">
@@ -2604,62 +3409,52 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" t="s">
         <v>140</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>141</v>
       </c>
-      <c r="J13" t="s">
-        <v>133</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>142</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>143</v>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>136</v>
-      </c>
       <c r="O13" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
@@ -2675,7 +3470,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2684,53 +3479,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
@@ -2746,7 +3531,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2755,10 +3540,10 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
         <v>157</v>
@@ -2767,41 +3552,31 @@
         <v>158</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
@@ -2817,7 +3592,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2826,25 +3601,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="O16" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2856,13 +3631,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -2878,7 +3653,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2887,53 +3662,53 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
         <v>2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
@@ -2949,7 +3724,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2958,35 +3733,41 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>184</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
       <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3041,14 +3822,24 @@
         <v>193</v>
       </c>
       <c r="O19" t="s">
-        <v>184</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
@@ -3102,23 +3893,19 @@
         <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="n">
         <v>4</v>
       </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3158,13 +3945,13 @@
         <v>207</v>
       </c>
       <c r="J21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s">
         <v>208</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>209</v>
-      </c>
-      <c r="L21" t="s">
-        <v>210</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -3173,7 +3960,7 @@
         <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -3182,26 +3969,26 @@
         <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="X21" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Y21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
@@ -3217,56 +4004,62 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s">
         <v>214</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>215</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>216</v>
       </c>
-      <c r="K22" t="s">
-        <v>217</v>
-      </c>
-      <c r="L22" t="s">
-        <v>218</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>202</v>
-      </c>
       <c r="O22" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
+        <v>217</v>
+      </c>
+      <c r="X22" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y22" t="s">
         <v>219</v>
-      </c>
-      <c r="X22" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="23">
@@ -3282,48 +4075,62 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" t="s">
         <v>222</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>223</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>224</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
         <v>225</v>
       </c>
-      <c r="L23" t="s">
+      <c r="X23" t="s">
         <v>226</v>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="Y23" t="s">
         <v>227</v>
-      </c>
-      <c r="O23" t="s">
-        <v>184</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
-      <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="24">
@@ -3362,21 +4169,39 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="N24" t="s">
+        <v>216</v>
+      </c>
+      <c r="O24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>233</v>
+      </c>
+      <c r="X24" t="s">
+        <v>234</v>
+      </c>
       <c r="Y24" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
@@ -3392,7 +4217,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3401,39 +4226,53 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>241</v>
+      </c>
+      <c r="X25" t="s">
+        <v>242</v>
+      </c>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26">
@@ -3449,7 +4288,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3458,25 +4297,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="O26" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3487,10 +4326,14 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>249</v>
+      </c>
+      <c r="X26" t="s">
+        <v>250</v>
+      </c>
       <c r="Y26" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
@@ -3506,7 +4349,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3515,49 +4358,53 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J27" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="O27" t="s">
-        <v>77</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="X27" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Y27" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
@@ -3573,7 +4420,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3582,25 +4429,25 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="J28" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3608,8 +4455,12 @@
       <c r="Q28" t="n">
         <v>1</v>
       </c>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>1</v>
@@ -3618,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="X28" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="Y28" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
@@ -3640,7 +4491,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3649,32 +4500,38 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
       </c>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>3</v>
@@ -3683,13 +4540,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="X29" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Y29" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30">
@@ -3705,7 +4562,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3714,47 +4571,47 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O30" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="X30" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Y30" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31">
@@ -3770,7 +4627,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3779,45 +4636,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="J31" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K31" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="O31" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>1</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>291</v>
+      </c>
+      <c r="X31" t="s">
+        <v>292</v>
+      </c>
       <c r="Y31" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32">
@@ -3833,7 +4688,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3842,49 +4697,53 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="J32" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="K32" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
         <v>290</v>
       </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>291</v>
-      </c>
       <c r="O32" t="s">
-        <v>77</v>
-      </c>
-      <c r="P32" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
       <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="X32" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Y32" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33">
@@ -3900,7 +4759,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3909,49 +4768,53 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="J33" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K33" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>281</v>
+      </c>
+      <c r="O33" t="s">
+        <v>94</v>
+      </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="X33" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Y33" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34">
@@ -3967,7 +4830,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3976,43 +4839,53 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="J34" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="K34" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
       <c r="R34" t="n">
         <v>4</v>
       </c>
-      <c r="S34" t="s"/>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>316</v>
+      </c>
+      <c r="X34" t="s">
+        <v>317</v>
+      </c>
       <c r="Y34" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35">
@@ -4028,7 +4901,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4037,30 +4910,34 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="J35" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="K35" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
+      <c r="N35" t="s">
+        <v>315</v>
+      </c>
+      <c r="O35" t="s">
+        <v>78</v>
+      </c>
       <c r="P35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -4073,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="X35" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Y35" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36">
@@ -4095,7 +4972,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4104,47 +4981,47 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="J36" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="K36" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L36" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="O36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="X36" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Y36" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37">
@@ -4160,7 +5037,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4169,33 +5046,31 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="J37" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>315</v>
+      </c>
+      <c r="O37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
         <v>3</v>
-      </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
@@ -4205,13 +5080,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="X37" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="Y37" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38">
@@ -4227,7 +5102,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4236,31 +5111,31 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="J38" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="K38" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
-      <c r="P38" t="n">
-        <v>1</v>
-      </c>
+      <c r="N38" t="s">
+        <v>348</v>
+      </c>
+      <c r="O38" t="s">
+        <v>78</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
-      <c r="R38" t="n">
-        <v>1</v>
-      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="n">
         <v>1</v>
       </c>
@@ -4272,13 +5147,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="X38" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Y38" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39">
@@ -4294,7 +5169,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4303,49 +5178,39 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="J39" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K39" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>357</v>
+      </c>
+      <c r="O39" t="s">
+        <v>134</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>3</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>347</v>
-      </c>
-      <c r="X39" t="s">
-        <v>348</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
@@ -4361,7 +5226,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4370,49 +5235,35 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="J40" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="K40" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s"/>
       <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>1</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>355</v>
-      </c>
-      <c r="X40" t="s">
-        <v>356</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41">
@@ -4428,7 +5279,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4437,45 +5288,39 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J41" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K41" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L41" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>357</v>
+      </c>
+      <c r="O41" t="s">
+        <v>78</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42">
@@ -4491,7 +5336,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4500,53 +5345,43 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="J42" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="K42" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="L42" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="O42" t="s">
-        <v>77</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>369</v>
-      </c>
-      <c r="X42" t="s">
-        <v>370</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43">
@@ -4562,7 +5397,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4571,51 +5406,39 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="J43" t="s">
+        <v>378</v>
+      </c>
+      <c r="K43" t="s">
+        <v>379</v>
+      </c>
+      <c r="L43" t="s">
+        <v>380</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
         <v>374</v>
       </c>
-      <c r="K43" t="s">
-        <v>375</v>
-      </c>
-      <c r="L43" t="s">
-        <v>376</v>
-      </c>
-      <c r="M43" t="n">
-        <v>2</v>
-      </c>
-      <c r="N43" t="s">
-        <v>368</v>
-      </c>
       <c r="O43" t="s">
-        <v>61</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>377</v>
-      </c>
-      <c r="X43" t="s">
-        <v>378</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44">
@@ -4631,7 +5454,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4640,51 +5463,37 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J44" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K44" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L44" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="O44" t="s">
-        <v>61</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>3</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>386</v>
-      </c>
-      <c r="X44" t="s">
-        <v>387</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
         <v>388</v>
       </c>
@@ -4723,37 +5532,37 @@
         <v>393</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
         <v>394</v>
       </c>
       <c r="O45" t="s">
-        <v>77</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S45" t="n">
         <v>2</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>395</v>
+      </c>
+      <c r="X45" t="s">
+        <v>396</v>
+      </c>
       <c r="Y45" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46">
@@ -4769,7 +5578,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4778,49 +5587,49 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="J46" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K46" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L46" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="O46" t="s">
         <v>53</v>
       </c>
       <c r="P46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>395</v>
+      </c>
+      <c r="X46" t="s">
+        <v>396</v>
+      </c>
       <c r="Y46" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47">
@@ -4836,7 +5645,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4845,49 +5654,39 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="J47" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K47" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L47" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
-      </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
-      <c r="P47" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2</v>
-      </c>
-      <c r="R47" t="n">
-        <v>2</v>
-      </c>
-      <c r="S47" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>410</v>
+      </c>
+      <c r="O47" t="s">
+        <v>125</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>2</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>406</v>
-      </c>
-      <c r="X47" t="s">
-        <v>407</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48">
@@ -4903,7 +5702,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4912,47 +5711,33 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="J48" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K48" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s"/>
       <c r="O48" t="s"/>
-      <c r="P48" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2</v>
-      </c>
-      <c r="R48" t="n">
-        <v>3</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1</v>
-      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>2</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>414</v>
-      </c>
-      <c r="X48" t="s">
-        <v>415</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
         <v>416</v>
       </c>
@@ -4991,7 +5776,7 @@
         <v>421</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N49" t="s">
         <v>422</v>
@@ -5000,20 +5785,14 @@
         <v>53</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5062,41 +5841,35 @@
         <v>430</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="O50" t="s">
-        <v>77</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
       <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="X50" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Y50" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51">
@@ -5112,7 +5885,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5121,53 +5894,45 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J51" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K51" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L51" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="O51" t="s">
-        <v>77</v>
-      </c>
-      <c r="P51" t="n">
-        <v>4</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
         <v>440</v>
-      </c>
-      <c r="X51" t="s">
-        <v>441</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="52">
@@ -5183,62 +5948,2411 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
+        <v>441</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>442</v>
+      </c>
+      <c r="J52" t="s">
         <v>443</v>
       </c>
-      <c r="G52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="K52" t="s">
         <v>444</v>
       </c>
-      <c r="J52" t="s">
+      <c r="L52" t="s">
         <v>445</v>
       </c>
-      <c r="K52" t="s">
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
         <v>446</v>
       </c>
-      <c r="L52" t="s">
-        <v>447</v>
-      </c>
-      <c r="M52" t="n">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s">
-        <v>448</v>
-      </c>
       <c r="O52" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q52" t="s"/>
       <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>447</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>448</v>
+      </c>
+      <c r="J53" t="s">
         <v>449</v>
       </c>
-      <c r="X52" t="s">
+      <c r="K53" t="s">
         <v>450</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="L53" t="s">
         <v>451</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>452</v>
+      </c>
+      <c r="O53" t="s">
+        <v>94</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>453</v>
+      </c>
+      <c r="X53" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>456</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>457</v>
+      </c>
+      <c r="J54" t="s">
+        <v>458</v>
+      </c>
+      <c r="K54" t="s">
+        <v>459</v>
+      </c>
+      <c r="L54" t="s">
+        <v>460</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>461</v>
+      </c>
+      <c r="O54" t="s">
+        <v>94</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>462</v>
+      </c>
+      <c r="X54" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>465</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>466</v>
+      </c>
+      <c r="J55" t="s">
+        <v>467</v>
+      </c>
+      <c r="K55" t="s">
+        <v>468</v>
+      </c>
+      <c r="L55" t="s">
+        <v>469</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>470</v>
+      </c>
+      <c r="X55" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>473</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>474</v>
+      </c>
+      <c r="J56" t="s">
+        <v>475</v>
+      </c>
+      <c r="K56" t="s">
+        <v>476</v>
+      </c>
+      <c r="L56" t="s">
+        <v>477</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>478</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>480</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>481</v>
+      </c>
+      <c r="J57" t="s">
+        <v>482</v>
+      </c>
+      <c r="K57" t="s">
+        <v>483</v>
+      </c>
+      <c r="L57" t="s">
+        <v>484</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>478</v>
+      </c>
+      <c r="O57" t="s">
+        <v>94</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>485</v>
+      </c>
+      <c r="X57" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>488</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>489</v>
+      </c>
+      <c r="J58" t="s">
+        <v>482</v>
+      </c>
+      <c r="K58" t="s">
+        <v>490</v>
+      </c>
+      <c r="L58" t="s">
+        <v>491</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>492</v>
+      </c>
+      <c r="O58" t="s">
+        <v>94</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>494</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>495</v>
+      </c>
+      <c r="J59" t="s">
+        <v>496</v>
+      </c>
+      <c r="K59" t="s">
+        <v>497</v>
+      </c>
+      <c r="L59" t="s">
+        <v>498</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>499</v>
+      </c>
+      <c r="X59" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>502</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>503</v>
+      </c>
+      <c r="J60" t="s">
+        <v>504</v>
+      </c>
+      <c r="K60" t="s">
+        <v>505</v>
+      </c>
+      <c r="L60" t="s">
+        <v>506</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>507</v>
+      </c>
+      <c r="O60" t="s">
+        <v>94</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>508</v>
+      </c>
+      <c r="X60" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>511</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>512</v>
+      </c>
+      <c r="J61" t="s">
+        <v>513</v>
+      </c>
+      <c r="K61" t="s">
+        <v>150</v>
+      </c>
+      <c r="L61" t="s">
+        <v>514</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>515</v>
+      </c>
+      <c r="X61" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>518</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>519</v>
+      </c>
+      <c r="J62" t="s">
+        <v>520</v>
+      </c>
+      <c r="K62" t="s">
+        <v>279</v>
+      </c>
+      <c r="L62" t="s">
+        <v>521</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>522</v>
+      </c>
+      <c r="X62" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>525</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>526</v>
+      </c>
+      <c r="J63" t="s">
+        <v>527</v>
+      </c>
+      <c r="K63" t="s">
+        <v>528</v>
+      </c>
+      <c r="L63" t="s">
+        <v>529</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>461</v>
+      </c>
+      <c r="O63" t="s">
+        <v>78</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>531</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>532</v>
+      </c>
+      <c r="J64" t="s">
+        <v>533</v>
+      </c>
+      <c r="K64" t="s">
+        <v>534</v>
+      </c>
+      <c r="L64" t="s">
+        <v>535</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>536</v>
+      </c>
+      <c r="X64" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>539</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>540</v>
+      </c>
+      <c r="J65" t="s">
+        <v>541</v>
+      </c>
+      <c r="K65" t="s">
+        <v>542</v>
+      </c>
+      <c r="L65" t="s">
+        <v>543</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>544</v>
+      </c>
+      <c r="X65" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>547</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>548</v>
+      </c>
+      <c r="J66" t="s">
+        <v>549</v>
+      </c>
+      <c r="K66" t="s">
+        <v>550</v>
+      </c>
+      <c r="L66" t="s">
+        <v>551</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>552</v>
+      </c>
+      <c r="X66" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>555</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>556</v>
+      </c>
+      <c r="J67" t="s">
+        <v>557</v>
+      </c>
+      <c r="K67" t="s">
+        <v>558</v>
+      </c>
+      <c r="L67" t="s">
+        <v>559</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>560</v>
+      </c>
+      <c r="O67" t="s">
+        <v>94</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>561</v>
+      </c>
+      <c r="X67" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>564</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>565</v>
+      </c>
+      <c r="J68" t="s">
+        <v>566</v>
+      </c>
+      <c r="K68" t="s">
+        <v>567</v>
+      </c>
+      <c r="L68" t="s">
+        <v>568</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>569</v>
+      </c>
+      <c r="X68" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>572</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>573</v>
+      </c>
+      <c r="J69" t="s">
+        <v>574</v>
+      </c>
+      <c r="K69" t="s">
+        <v>575</v>
+      </c>
+      <c r="L69" t="s">
+        <v>576</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>577</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>578</v>
+      </c>
+      <c r="J70" t="s">
+        <v>579</v>
+      </c>
+      <c r="K70" t="s">
+        <v>580</v>
+      </c>
+      <c r="L70" t="s">
+        <v>581</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>582</v>
+      </c>
+      <c r="O70" t="s">
+        <v>94</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>583</v>
+      </c>
+      <c r="X70" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>586</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>587</v>
+      </c>
+      <c r="J71" t="s">
+        <v>588</v>
+      </c>
+      <c r="K71" t="s">
+        <v>589</v>
+      </c>
+      <c r="L71" t="s">
+        <v>590</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>582</v>
+      </c>
+      <c r="O71" t="s">
+        <v>78</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>591</v>
+      </c>
+      <c r="X71" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>594</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>595</v>
+      </c>
+      <c r="J72" t="s">
+        <v>596</v>
+      </c>
+      <c r="K72" t="s">
+        <v>597</v>
+      </c>
+      <c r="L72" t="s">
+        <v>598</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>600</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>601</v>
+      </c>
+      <c r="J73" t="s">
+        <v>602</v>
+      </c>
+      <c r="K73" t="s">
+        <v>603</v>
+      </c>
+      <c r="L73" t="s">
+        <v>604</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>606</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>607</v>
+      </c>
+      <c r="J74" t="s">
+        <v>608</v>
+      </c>
+      <c r="K74" t="s">
+        <v>609</v>
+      </c>
+      <c r="L74" t="s">
+        <v>610</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>611</v>
+      </c>
+      <c r="O74" t="s">
+        <v>78</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>612</v>
+      </c>
+      <c r="X74" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>615</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>616</v>
+      </c>
+      <c r="J75" t="s">
+        <v>617</v>
+      </c>
+      <c r="K75" t="s">
+        <v>618</v>
+      </c>
+      <c r="L75" t="s">
+        <v>619</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>620</v>
+      </c>
+      <c r="O75" t="s">
+        <v>94</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>621</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>622</v>
+      </c>
+      <c r="J76" t="s">
+        <v>623</v>
+      </c>
+      <c r="K76" t="s">
+        <v>624</v>
+      </c>
+      <c r="L76" t="s">
+        <v>625</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>620</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>627</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>628</v>
+      </c>
+      <c r="J77" t="s">
+        <v>629</v>
+      </c>
+      <c r="K77" t="s">
+        <v>630</v>
+      </c>
+      <c r="L77" t="s">
+        <v>631</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>632</v>
+      </c>
+      <c r="O77" t="s">
+        <v>78</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>633</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>634</v>
+      </c>
+      <c r="J78" t="s">
+        <v>635</v>
+      </c>
+      <c r="K78" t="s">
+        <v>636</v>
+      </c>
+      <c r="L78" t="s">
+        <v>637</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>638</v>
+      </c>
+      <c r="O78" t="s">
+        <v>94</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>639</v>
+      </c>
+      <c r="X78" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>642</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>643</v>
+      </c>
+      <c r="J79" t="s">
+        <v>644</v>
+      </c>
+      <c r="K79" t="s">
+        <v>645</v>
+      </c>
+      <c r="L79" t="s">
+        <v>646</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>647</v>
+      </c>
+      <c r="X79" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>650</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>651</v>
+      </c>
+      <c r="J80" t="s">
+        <v>652</v>
+      </c>
+      <c r="K80" t="s">
+        <v>653</v>
+      </c>
+      <c r="L80" t="s">
+        <v>654</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>655</v>
+      </c>
+      <c r="X80" t="s">
+        <v>656</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>658</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>659</v>
+      </c>
+      <c r="J81" t="s">
+        <v>660</v>
+      </c>
+      <c r="K81" t="s">
+        <v>661</v>
+      </c>
+      <c r="L81" t="s">
+        <v>662</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>663</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>664</v>
+      </c>
+      <c r="X81" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>667</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>668</v>
+      </c>
+      <c r="J82" t="s">
+        <v>669</v>
+      </c>
+      <c r="K82" t="s">
+        <v>670</v>
+      </c>
+      <c r="L82" t="s">
+        <v>671</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>663</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>672</v>
+      </c>
+      <c r="X82" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>675</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>676</v>
+      </c>
+      <c r="J83" t="s">
+        <v>677</v>
+      </c>
+      <c r="K83" t="s">
+        <v>678</v>
+      </c>
+      <c r="L83" t="s">
+        <v>679</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>680</v>
+      </c>
+      <c r="O83" t="s">
+        <v>94</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>672</v>
+      </c>
+      <c r="X83" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>682</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>683</v>
+      </c>
+      <c r="J84" t="s">
+        <v>684</v>
+      </c>
+      <c r="K84" t="s">
+        <v>685</v>
+      </c>
+      <c r="L84" t="s">
+        <v>686</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>663</v>
+      </c>
+      <c r="O84" t="s">
+        <v>94</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>687</v>
+      </c>
+      <c r="X84" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>690</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>691</v>
+      </c>
+      <c r="J85" t="s">
+        <v>692</v>
+      </c>
+      <c r="K85" t="s">
+        <v>693</v>
+      </c>
+      <c r="L85" t="s">
+        <v>694</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>695</v>
+      </c>
+      <c r="O85" t="s">
+        <v>94</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>696</v>
+      </c>
+      <c r="X85" t="s">
+        <v>697</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>699</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>700</v>
+      </c>
+      <c r="J86" t="s">
+        <v>701</v>
+      </c>
+      <c r="K86" t="s">
+        <v>702</v>
+      </c>
+      <c r="L86" t="s">
+        <v>703</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>704</v>
+      </c>
+      <c r="O86" t="s">
+        <v>94</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>705</v>
+      </c>
+      <c r="X86" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>31509</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>708</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>709</v>
+      </c>
+      <c r="J87" t="s">
+        <v>710</v>
+      </c>
+      <c r="K87" t="s">
+        <v>711</v>
+      </c>
+      <c r="L87" t="s">
+        <v>712</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>713</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>714</v>
+      </c>
+      <c r="X87" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
